--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3842657.55531183</v>
+        <v>3840480.880773107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8312237.378497206</v>
+        <v>8312237.378497209</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211235.9319057402</v>
+        <v>211235.9319057401</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="R2" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,70 +741,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.73205987707308</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,70 +817,70 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D4" t="n">
+      <c r="T4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E4" t="n">
+      <c r="U4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,67 +978,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="X6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,76 +1051,76 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.772547683598775</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>17.42524850757501</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S9" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="W9" t="n">
-        <v>23.55470292302859</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,61 +1300,61 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I10" t="n">
+      <c r="U10" t="n">
+        <v>19.72731862540289</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>331.6469905493981</v>
       </c>
       <c r="F11" t="n">
-        <v>356.5926662188477</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G11" t="n">
-        <v>360.8014054759328</v>
+        <v>360.8014054759329</v>
       </c>
       <c r="H11" t="n">
-        <v>245.9943163849514</v>
+        <v>245.9943163849515</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.62009709731768</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T11" t="n">
-        <v>154.3483829009957</v>
+        <v>154.3483829009958</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7248371836657</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V11" t="n">
-        <v>277.4688789472712</v>
+        <v>277.4688789472713</v>
       </c>
       <c r="W11" t="n">
-        <v>298.9575891945493</v>
+        <v>298.9575891945494</v>
       </c>
       <c r="X11" t="n">
-        <v>319.4477211556053</v>
+        <v>319.4477211556054</v>
       </c>
       <c r="Y11" t="n">
         <v>335.9545591331899</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.5486006590736</v>
+        <v>129.5486006590737</v>
       </c>
       <c r="C13" t="n">
-        <v>116.9634415757641</v>
+        <v>116.9634415757642</v>
       </c>
       <c r="D13" t="n">
-        <v>98.33209349534866</v>
+        <v>98.3320934953487</v>
       </c>
       <c r="E13" t="n">
-        <v>96.15058312370547</v>
+        <v>96.15058312370552</v>
       </c>
       <c r="F13" t="n">
-        <v>95.13766850006755</v>
+        <v>95.13766850006759</v>
       </c>
       <c r="G13" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H13" t="n">
-        <v>95.12194145517344</v>
+        <v>95.12194145517348</v>
       </c>
       <c r="I13" t="n">
-        <v>48.2686446280518</v>
+        <v>48.26864462805185</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93753980479211</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S13" t="n">
-        <v>140.7603254856173</v>
+        <v>140.7603254856174</v>
       </c>
       <c r="T13" t="n">
-        <v>169.5780890272796</v>
+        <v>169.5780890272797</v>
       </c>
       <c r="U13" t="n">
-        <v>235.932448290502</v>
+        <v>235.9324482905021</v>
       </c>
       <c r="V13" t="n">
-        <v>201.8542638009643</v>
+        <v>201.8542638009644</v>
       </c>
       <c r="W13" t="n">
-        <v>236.2396188137273</v>
+        <v>236.2396188137274</v>
       </c>
       <c r="X13" t="n">
         <v>175.4262758661735</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.6200970973173</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T14" t="n">
         <v>154.3483829009958</v>
@@ -1768,22 +1768,22 @@
         <v>116.9634415757642</v>
       </c>
       <c r="D16" t="n">
-        <v>98.33209349534872</v>
+        <v>98.3320934953487</v>
       </c>
       <c r="E16" t="n">
-        <v>96.15058312370553</v>
+        <v>96.15058312370552</v>
       </c>
       <c r="F16" t="n">
-        <v>95.1376685000676</v>
+        <v>95.13766850006759</v>
       </c>
       <c r="G16" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H16" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517348</v>
       </c>
       <c r="I16" t="n">
-        <v>48.26864462805186</v>
+        <v>48.26864462805185</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S16" t="n">
         <v>140.7603254856174</v>
@@ -1819,7 +1819,7 @@
         <v>169.5780890272797</v>
       </c>
       <c r="U16" t="n">
-        <v>235.932448290502</v>
+        <v>235.9324482905021</v>
       </c>
       <c r="V16" t="n">
         <v>201.8542638009644</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.6200970973173</v>
+        <v>62.62009709731728</v>
       </c>
       <c r="T17" t="n">
-        <v>154.3483829009958</v>
+        <v>154.3483829009957</v>
       </c>
       <c r="U17" t="n">
         <v>200.7248371836658</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.5486006590737</v>
+        <v>129.5486006590736</v>
       </c>
       <c r="C19" t="n">
         <v>116.9634415757642</v>
       </c>
       <c r="D19" t="n">
-        <v>98.33209349534872</v>
+        <v>98.33209349534869</v>
       </c>
       <c r="E19" t="n">
-        <v>96.15058312370553</v>
+        <v>96.1505831237055</v>
       </c>
       <c r="F19" t="n">
-        <v>95.1376685000676</v>
+        <v>95.13766850006758</v>
       </c>
       <c r="G19" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H19" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517347</v>
       </c>
       <c r="I19" t="n">
-        <v>48.26864462805186</v>
+        <v>48.26864462805196</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479214</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7603254856174</v>
+        <v>140.7603254856173</v>
       </c>
       <c r="T19" t="n">
-        <v>169.5780890272797</v>
+        <v>169.5780890272796</v>
       </c>
       <c r="U19" t="n">
-        <v>235.9324482905021</v>
+        <v>235.932448290502</v>
       </c>
       <c r="V19" t="n">
-        <v>201.8542638009644</v>
+        <v>201.8542638009643</v>
       </c>
       <c r="W19" t="n">
-        <v>236.2396188137274</v>
+        <v>236.2396188137273</v>
       </c>
       <c r="X19" t="n">
         <v>175.4262758661735</v>
@@ -2087,7 +2087,7 @@
         <v>304.3996620978193</v>
       </c>
       <c r="E20" t="n">
-        <v>331.6469905493981</v>
+        <v>331.6469905493976</v>
       </c>
       <c r="F20" t="n">
         <v>356.5926662188478</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.6200970973173</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T20" t="n">
-        <v>154.3483829009958</v>
+        <v>154.3483829009957</v>
       </c>
       <c r="U20" t="n">
         <v>200.7248371836658</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.5486006590737</v>
+        <v>129.5486006590736</v>
       </c>
       <c r="C22" t="n">
         <v>116.9634415757642</v>
       </c>
       <c r="D22" t="n">
-        <v>98.33209349534872</v>
+        <v>98.33209349534869</v>
       </c>
       <c r="E22" t="n">
-        <v>96.15058312370553</v>
+        <v>96.1505831237055</v>
       </c>
       <c r="F22" t="n">
-        <v>95.1376685000676</v>
+        <v>95.13766850006758</v>
       </c>
       <c r="G22" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H22" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517347</v>
       </c>
       <c r="I22" t="n">
-        <v>48.2686446280515</v>
+        <v>48.26864462805183</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479214</v>
       </c>
       <c r="S22" t="n">
-        <v>140.7603254856174</v>
+        <v>140.7603254856173</v>
       </c>
       <c r="T22" t="n">
-        <v>169.5780890272797</v>
+        <v>169.5780890272796</v>
       </c>
       <c r="U22" t="n">
-        <v>235.9324482905021</v>
+        <v>235.932448290502</v>
       </c>
       <c r="V22" t="n">
-        <v>201.8542638009644</v>
+        <v>201.8542638009643</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2396188137274</v>
+        <v>236.2396188137273</v>
       </c>
       <c r="X22" t="n">
         <v>175.4262758661735</v>
@@ -2327,7 +2327,7 @@
         <v>331.6469905493981</v>
       </c>
       <c r="F23" t="n">
-        <v>356.5926662188479</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G23" t="n">
         <v>360.8014054759329</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.6200970973173</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T23" t="n">
-        <v>154.3483829009958</v>
+        <v>154.3483829009957</v>
       </c>
       <c r="U23" t="n">
         <v>200.7248371836658</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.5486006590737</v>
+        <v>129.5486006590736</v>
       </c>
       <c r="C25" t="n">
         <v>116.9634415757642</v>
       </c>
       <c r="D25" t="n">
-        <v>98.33209349534872</v>
+        <v>98.33209349534869</v>
       </c>
       <c r="E25" t="n">
-        <v>96.15058312370553</v>
+        <v>96.1505831237055</v>
       </c>
       <c r="F25" t="n">
-        <v>95.13766850006729</v>
+        <v>95.13766850006758</v>
       </c>
       <c r="G25" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H25" t="n">
-        <v>95.1219414551735</v>
+        <v>95.12194145517347</v>
       </c>
       <c r="I25" t="n">
-        <v>48.26864462805186</v>
+        <v>48.26864462805197</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93753980479217</v>
+        <v>41.93753980479214</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7603254856174</v>
+        <v>140.7603254856173</v>
       </c>
       <c r="T25" t="n">
-        <v>169.5780890272797</v>
+        <v>169.5780890272796</v>
       </c>
       <c r="U25" t="n">
-        <v>235.9324482905021</v>
+        <v>235.932448290502</v>
       </c>
       <c r="V25" t="n">
-        <v>201.8542638009644</v>
+        <v>201.8542638009643</v>
       </c>
       <c r="W25" t="n">
-        <v>236.2396188137274</v>
+        <v>236.2396188137273</v>
       </c>
       <c r="X25" t="n">
         <v>175.4262758661735</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0847849987966</v>
+        <v>411.0847849987965</v>
       </c>
       <c r="H26" t="n">
-        <v>296.2776959078152</v>
+        <v>296.2776959078151</v>
       </c>
       <c r="I26" t="n">
-        <v>47.8632751842654</v>
+        <v>47.8632751842645</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>112.903476620181</v>
+        <v>112.9034766201809</v>
       </c>
       <c r="T26" t="n">
-        <v>204.6317624238595</v>
+        <v>204.6317624238594</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0082167065295</v>
+        <v>251.0082167065294</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90.17690725804621</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0989510678307</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4053209780371</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.5520241509155</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.22091932765581</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.043705008481</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8614685501433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2158278133657</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>228.5100934462</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0847849987966</v>
+        <v>411.0847849987965</v>
       </c>
       <c r="H29" t="n">
-        <v>296.2776959078152</v>
+        <v>296.2776959078151</v>
       </c>
       <c r="I29" t="n">
-        <v>47.86327518426457</v>
+        <v>47.8632751842645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.903476620181</v>
+        <v>112.9034766201809</v>
       </c>
       <c r="T29" t="n">
-        <v>204.6317624238595</v>
+        <v>204.6317624238594</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0082167065295</v>
+        <v>251.0082167065294</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0989510678307</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.22091932765581</v>
       </c>
       <c r="S31" t="n">
-        <v>102.2422307905726</v>
+        <v>191.043705008481</v>
       </c>
       <c r="T31" t="n">
         <v>219.8614685501433</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2158278133657</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>195.2908482789181</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.5548745780474</v>
+        <v>379.5548745780472</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0939246855744</v>
+        <v>362.0939246855742</v>
       </c>
       <c r="D32" t="n">
-        <v>351.5040745352498</v>
+        <v>351.5040745352496</v>
       </c>
       <c r="E32" t="n">
-        <v>378.7514029868286</v>
+        <v>378.7514029868285</v>
       </c>
       <c r="F32" t="n">
-        <v>403.6970786562783</v>
+        <v>403.6970786562781</v>
       </c>
       <c r="G32" t="n">
-        <v>407.9058179133634</v>
+        <v>407.9058179133632</v>
       </c>
       <c r="H32" t="n">
-        <v>293.098728822382</v>
+        <v>293.0987288223818</v>
       </c>
       <c r="I32" t="n">
-        <v>44.68430809883131</v>
+        <v>44.68430809883116</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.7245095347478</v>
+        <v>109.7245095347476</v>
       </c>
       <c r="T32" t="n">
-        <v>201.4527953384262</v>
+        <v>201.4527953384261</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8292496210962</v>
+        <v>247.8292496210961</v>
       </c>
       <c r="V32" t="n">
-        <v>324.5732913847017</v>
+        <v>324.5732913847016</v>
       </c>
       <c r="W32" t="n">
-        <v>346.0620016319799</v>
+        <v>346.0620016319797</v>
       </c>
       <c r="X32" t="n">
-        <v>366.5521335930359</v>
+        <v>366.5521335930357</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.0589715706204</v>
+        <v>383.0589715706203</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.6530130965041</v>
+        <v>176.653013096504</v>
       </c>
       <c r="C34" t="n">
-        <v>164.0678540131946</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.4365059327792</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.254995561136</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>142.2420809374981</v>
+        <v>142.2420809374979</v>
       </c>
       <c r="G34" t="n">
-        <v>162.9199839823975</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.226353892604</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>95.37305706548231</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.04195224222262</v>
+        <v>89.04195224222248</v>
       </c>
       <c r="S34" t="n">
-        <v>187.8647379230478</v>
+        <v>187.8647379230477</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>216.68250146471</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>235.8394234408397</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>248.9586762383947</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.3440312511577</v>
       </c>
       <c r="X34" t="n">
-        <v>131.5458819475067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.4056862666616</v>
+        <v>215.4056862666615</v>
       </c>
     </row>
     <row r="35">
@@ -3512,13 +3512,13 @@
         <v>331.6469905493981</v>
       </c>
       <c r="F38" t="n">
-        <v>356.5926662188477</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G38" t="n">
-        <v>360.8014054759328</v>
+        <v>360.8014054759329</v>
       </c>
       <c r="H38" t="n">
-        <v>245.9943163849514</v>
+        <v>245.9943163849515</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.62009709731726</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T38" t="n">
-        <v>154.3483829009957</v>
+        <v>154.3483829009958</v>
       </c>
       <c r="U38" t="n">
-        <v>200.7248371836657</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V38" t="n">
-        <v>277.4688789472712</v>
+        <v>277.4688789472713</v>
       </c>
       <c r="W38" t="n">
-        <v>298.9575891945493</v>
+        <v>298.9575891945494</v>
       </c>
       <c r="X38" t="n">
-        <v>319.4477211556053</v>
+        <v>319.4477211556054</v>
       </c>
       <c r="Y38" t="n">
         <v>335.9545591331899</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.5486006590736</v>
+        <v>129.5486006590737</v>
       </c>
       <c r="C40" t="n">
         <v>116.9634415757642</v>
       </c>
       <c r="D40" t="n">
-        <v>98.33209349534867</v>
+        <v>98.3320934953487</v>
       </c>
       <c r="E40" t="n">
-        <v>96.15058312370549</v>
+        <v>96.15058312370552</v>
       </c>
       <c r="F40" t="n">
-        <v>95.13766850006756</v>
+        <v>95.13766850006759</v>
       </c>
       <c r="G40" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H40" t="n">
-        <v>95.12194145517346</v>
+        <v>95.12194145517348</v>
       </c>
       <c r="I40" t="n">
-        <v>48.26864462805182</v>
+        <v>48.26864462805185</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93753980479212</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S40" t="n">
-        <v>140.7603254856173</v>
+        <v>140.7603254856174</v>
       </c>
       <c r="T40" t="n">
-        <v>169.5780890272796</v>
+        <v>169.5780890272797</v>
       </c>
       <c r="U40" t="n">
-        <v>235.932448290502</v>
+        <v>235.9324482905021</v>
       </c>
       <c r="V40" t="n">
-        <v>201.8542638009643</v>
+        <v>201.8542638009644</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2396188137273</v>
+        <v>236.2396188137274</v>
       </c>
       <c r="X40" t="n">
         <v>175.4262758661735</v>
@@ -3749,13 +3749,13 @@
         <v>331.6469905493981</v>
       </c>
       <c r="F41" t="n">
-        <v>356.5926662188477</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G41" t="n">
-        <v>360.8014054759328</v>
+        <v>360.8014054759329</v>
       </c>
       <c r="H41" t="n">
-        <v>245.9943163849514</v>
+        <v>245.9943163849515</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.62009709731768</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T41" t="n">
-        <v>154.3483829009957</v>
+        <v>154.3483829009958</v>
       </c>
       <c r="U41" t="n">
-        <v>200.7248371836657</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V41" t="n">
-        <v>277.4688789472712</v>
+        <v>277.4688789472713</v>
       </c>
       <c r="W41" t="n">
-        <v>298.9575891945493</v>
+        <v>298.9575891945494</v>
       </c>
       <c r="X41" t="n">
-        <v>319.4477211556053</v>
+        <v>319.4477211556054</v>
       </c>
       <c r="Y41" t="n">
         <v>335.9545591331899</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.5486006590736</v>
+        <v>129.5486006590737</v>
       </c>
       <c r="C43" t="n">
         <v>116.9634415757642</v>
       </c>
       <c r="D43" t="n">
-        <v>98.33209349534867</v>
+        <v>98.3320934953487</v>
       </c>
       <c r="E43" t="n">
-        <v>96.15058312370549</v>
+        <v>96.15058312370552</v>
       </c>
       <c r="F43" t="n">
-        <v>95.13766850006756</v>
+        <v>95.13766850006759</v>
       </c>
       <c r="G43" t="n">
         <v>115.815571544967</v>
       </c>
       <c r="H43" t="n">
-        <v>95.12194145517346</v>
+        <v>95.12194145517348</v>
       </c>
       <c r="I43" t="n">
-        <v>48.26864462805271</v>
+        <v>48.2686446280516</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93753980479212</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S43" t="n">
-        <v>140.7603254856173</v>
+        <v>140.7603254856174</v>
       </c>
       <c r="T43" t="n">
-        <v>169.5780890272796</v>
+        <v>169.5780890272797</v>
       </c>
       <c r="U43" t="n">
-        <v>235.932448290502</v>
+        <v>235.9324482905021</v>
       </c>
       <c r="V43" t="n">
-        <v>201.8542638009643</v>
+        <v>201.8542638009644</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2396188137273</v>
+        <v>236.2396188137274</v>
       </c>
       <c r="X43" t="n">
         <v>175.4262758661735</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.4504621406168</v>
+        <v>332.4504621406169</v>
       </c>
       <c r="C44" t="n">
-        <v>314.9895122481438</v>
+        <v>314.9895122481439</v>
       </c>
       <c r="D44" t="n">
-        <v>304.3996620978192</v>
+        <v>304.3996620978193</v>
       </c>
       <c r="E44" t="n">
-        <v>331.646990549398</v>
+        <v>331.6469905493981</v>
       </c>
       <c r="F44" t="n">
-        <v>356.5926662188477</v>
+        <v>356.5926662188478</v>
       </c>
       <c r="G44" t="n">
-        <v>360.8014054759328</v>
+        <v>360.8014054759329</v>
       </c>
       <c r="H44" t="n">
-        <v>245.9943163849514</v>
+        <v>245.994316384951</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.62009709731718</v>
+        <v>62.62009709731727</v>
       </c>
       <c r="T44" t="n">
         <v>154.3483829009957</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7248371836657</v>
+        <v>200.7248371836658</v>
       </c>
       <c r="V44" t="n">
-        <v>277.4688789472712</v>
+        <v>277.4688789472713</v>
       </c>
       <c r="W44" t="n">
-        <v>298.9575891945493</v>
+        <v>298.9575891945494</v>
       </c>
       <c r="X44" t="n">
-        <v>319.4477211556053</v>
+        <v>319.4477211556054</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.9545591331898</v>
+        <v>335.9545591331899</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.5486006590735</v>
+        <v>129.5486006590736</v>
       </c>
       <c r="C46" t="n">
-        <v>116.9634415757641</v>
+        <v>116.9634415757642</v>
       </c>
       <c r="D46" t="n">
-        <v>98.3320934953486</v>
+        <v>98.33209349534869</v>
       </c>
       <c r="E46" t="n">
-        <v>96.15058312370542</v>
+        <v>96.1505831237055</v>
       </c>
       <c r="F46" t="n">
-        <v>95.13766850006749</v>
+        <v>95.13766850006758</v>
       </c>
       <c r="G46" t="n">
-        <v>115.8155715449669</v>
+        <v>115.815571544967</v>
       </c>
       <c r="H46" t="n">
-        <v>95.12194145517338</v>
+        <v>95.12194145517347</v>
       </c>
       <c r="I46" t="n">
-        <v>48.26864462805175</v>
+        <v>48.26864462805184</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93753980479377</v>
+        <v>41.93753980479215</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7603254856173</v>
+        <v>140.7603254856174</v>
       </c>
       <c r="T46" t="n">
         <v>169.5780890272796</v>
@@ -4192,16 +4192,16 @@
         <v>235.932448290502</v>
       </c>
       <c r="V46" t="n">
-        <v>201.8542638009642</v>
+        <v>201.8542638009643</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2396188137272</v>
+        <v>236.2396188137273</v>
       </c>
       <c r="X46" t="n">
-        <v>175.4262758661734</v>
+        <v>175.4262758661735</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.301273829231</v>
+        <v>168.3012738292311</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M2" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.6733494211619</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.6733494211619</v>
-      </c>
       <c r="O2" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="R2" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="S2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D3" t="n">
-        <v>48.35028351804213</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E3" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F3" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>46.0612399205565</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N3" t="n">
-        <v>46.0612399205565</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
-        <v>46.0612399205565</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P3" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
@@ -4434,25 +4434,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
         <v>1.224219001210804</v>
@@ -4492,13 +4492,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L4" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4513,25 +4513,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M5" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="N5" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4586,31 +4586,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4650,46 +4650,46 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M6" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N6" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
-        <v>46.0612399205565</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P6" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
         <v>1.224219001210804</v>
@@ -4729,7 +4729,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
         <v>30.9115297805728</v>
@@ -4750,25 +4750,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.41742740677608</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C8" t="n">
-        <v>64.54871502261837</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D8" t="n">
-        <v>36.68000263846065</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E8" t="n">
-        <v>36.68000263846065</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F8" t="n">
-        <v>29.73450188925718</v>
+        <v>19.80846313958793</v>
       </c>
       <c r="G8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M8" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N8" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P8" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T8" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U8" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V8" t="n">
-        <v>100.2684856730375</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W8" t="n">
-        <v>100.2684856730375</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X8" t="n">
-        <v>100.2684856730375</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.2684856730375</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
         <v>2.207202020825291</v>
@@ -4890,13 +4890,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M9" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N9" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="O9" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
         <v>83.04597603355158</v>
@@ -4905,28 +4905,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U9" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V9" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
         <v>2.207202020825291</v>
@@ -4978,34 +4978,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1388.438067069794</v>
       </c>
       <c r="E11" t="n">
-        <v>1053.441106918886</v>
+        <v>1053.441106918887</v>
       </c>
       <c r="F11" t="n">
-        <v>693.2464945766159</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G11" t="n">
         <v>328.800630459512</v>
@@ -5039,34 +5039,34 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J11" t="n">
-        <v>255.4995904282976</v>
+        <v>422.9052394486506</v>
       </c>
       <c r="K11" t="n">
-        <v>568.7846215199628</v>
+        <v>736.1902705403159</v>
       </c>
       <c r="L11" t="n">
-        <v>1407.828769409494</v>
+        <v>1488.85801826434</v>
       </c>
       <c r="M11" t="n">
-        <v>1913.015197751177</v>
+        <v>1994.044446606024</v>
       </c>
       <c r="N11" t="n">
-        <v>2863.963334206277</v>
+        <v>2512.019127893259</v>
       </c>
       <c r="O11" t="n">
-        <v>3339.736876465669</v>
+        <v>3364.784849602769</v>
       </c>
       <c r="P11" t="n">
-        <v>3711.297586515177</v>
+        <v>3736.345559652278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3942.151459140237</v>
+        <v>3967.199432277338</v>
       </c>
       <c r="R11" t="n">
         <v>4016.076149998253</v>
       </c>
       <c r="S11" t="n">
-        <v>3952.823526667629</v>
+        <v>3952.82352666763</v>
       </c>
       <c r="T11" t="n">
         <v>3796.916069191876</v>
@@ -5081,10 +5081,10 @@
         <v>3011.914750681284</v>
       </c>
       <c r="X11" t="n">
-        <v>2689.240284867541</v>
+        <v>2689.240284867542</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.892245339066</v>
+        <v>2349.892245339067</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J12" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K12" t="n">
-        <v>514.9856735162799</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L12" t="n">
-        <v>862.9301246061036</v>
+        <v>738.0999996190988</v>
       </c>
       <c r="M12" t="n">
-        <v>1288.321755720681</v>
+        <v>1163.491630733677</v>
       </c>
       <c r="N12" t="n">
-        <v>1739.380882434306</v>
+        <v>1614.550757447301</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.792066625384</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P12" t="n">
-        <v>2423.798394953439</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q12" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R12" t="n">
         <v>2574.461857357622</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.836618275802</v>
+        <v>752.8366182758018</v>
       </c>
       <c r="C13" t="n">
-        <v>634.6917277952322</v>
+        <v>634.6917277952319</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3663808302335</v>
+        <v>535.3663808302332</v>
       </c>
       <c r="E13" t="n">
-        <v>438.2445796951774</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F13" t="n">
-        <v>342.1459246446042</v>
+        <v>342.1459246446038</v>
       </c>
       <c r="G13" t="n">
-        <v>225.1604988416073</v>
+        <v>225.1604988416068</v>
       </c>
       <c r="H13" t="n">
-        <v>129.0777296949674</v>
+        <v>129.0777296949669</v>
       </c>
       <c r="I13" t="n">
         <v>80.32152299996507</v>
       </c>
       <c r="J13" t="n">
-        <v>170.1052165580254</v>
+        <v>170.1052165580255</v>
       </c>
       <c r="K13" t="n">
-        <v>415.4600593660788</v>
+        <v>415.4600593660791</v>
       </c>
       <c r="L13" t="n">
-        <v>771.0348060858121</v>
+        <v>771.0348060858124</v>
       </c>
       <c r="M13" t="n">
         <v>1153.62158434337</v>
@@ -5218,7 +5218,7 @@
         <v>2146.234934604952</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.562310778188</v>
+        <v>2267.562310778187</v>
       </c>
       <c r="R13" t="n">
         <v>2225.201159460215</v>
@@ -5242,7 +5242,7 @@
         <v>1053.695077354898</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.6937906587046</v>
+        <v>883.6937906587045</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2014.083697722282</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229208</v>
       </c>
       <c r="D14" t="n">
         <v>1388.438067069794</v>
@@ -5264,7 +5264,7 @@
         <v>1053.441106918887</v>
       </c>
       <c r="F14" t="n">
-        <v>693.246494576616</v>
+        <v>693.2464945766162</v>
       </c>
       <c r="G14" t="n">
         <v>328.800630459512</v>
@@ -5276,28 +5276,28 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J14" t="n">
-        <v>422.9052394486506</v>
+        <v>255.4995904282976</v>
       </c>
       <c r="K14" t="n">
-        <v>736.1902705403159</v>
+        <v>568.7846215199628</v>
       </c>
       <c r="L14" t="n">
-        <v>1161.749816024901</v>
+        <v>994.3441670045479</v>
       </c>
       <c r="M14" t="n">
-        <v>1666.936244366585</v>
+        <v>1944.548993504136</v>
       </c>
       <c r="N14" t="n">
-        <v>2184.91092565382</v>
+        <v>2889.011307343377</v>
       </c>
       <c r="O14" t="n">
-        <v>2770.953032085443</v>
+        <v>3364.784849602769</v>
       </c>
       <c r="P14" t="n">
-        <v>3461.094463224719</v>
+        <v>3736.345559652278</v>
       </c>
       <c r="Q14" t="n">
-        <v>3902.140176603085</v>
+        <v>3967.199432277338</v>
       </c>
       <c r="R14" t="n">
         <v>4016.076149998253</v>
@@ -5312,10 +5312,10 @@
         <v>3594.163708400295</v>
       </c>
       <c r="V14" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.892113504062</v>
       </c>
       <c r="W14" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681285</v>
       </c>
       <c r="X14" t="n">
         <v>2689.240284867542</v>
@@ -5355,25 +5355,25 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J15" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K15" t="n">
-        <v>514.9856735162799</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L15" t="n">
-        <v>862.9301246061036</v>
+        <v>738.0999996190988</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.321755720681</v>
+        <v>1163.491630733677</v>
       </c>
       <c r="N15" t="n">
-        <v>1739.380882434306</v>
+        <v>1743.428096821655</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.792066625384</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P15" t="n">
-        <v>2423.798394953439</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q15" t="n">
         <v>2574.461857357622</v>
@@ -5419,22 +5419,22 @@
         <v>535.3663808302333</v>
       </c>
       <c r="E16" t="n">
-        <v>438.2445796951772</v>
+        <v>438.2445796951773</v>
       </c>
       <c r="F16" t="n">
-        <v>342.1459246446038</v>
+        <v>342.145924644604</v>
       </c>
       <c r="G16" t="n">
         <v>225.1604988416069</v>
       </c>
       <c r="H16" t="n">
-        <v>129.0777296949669</v>
+        <v>129.077729694967</v>
       </c>
       <c r="I16" t="n">
         <v>80.32152299996507</v>
       </c>
       <c r="J16" t="n">
-        <v>170.1052165580255</v>
+        <v>170.1052165580254</v>
       </c>
       <c r="K16" t="n">
         <v>415.4600593660788</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.083697722282</v>
+        <v>2014.083697722281</v>
       </c>
       <c r="C17" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229206</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069793</v>
       </c>
       <c r="E17" t="n">
         <v>1053.441106918886</v>
       </c>
       <c r="F17" t="n">
-        <v>693.2464945766158</v>
+        <v>693.2464945766155</v>
       </c>
       <c r="G17" t="n">
         <v>328.800630459512</v>
@@ -5546,16 +5546,16 @@
         <v>3796.916069191876</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.163708400295</v>
+        <v>3594.163708400294</v>
       </c>
       <c r="V17" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.89211350406</v>
       </c>
       <c r="W17" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681283</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.240284867541</v>
+        <v>2689.24028486754</v>
       </c>
       <c r="Y17" t="n">
         <v>2349.892245339066</v>
@@ -5592,25 +5592,25 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J18" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K18" t="n">
-        <v>514.9856735162799</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L18" t="n">
-        <v>862.9301246061036</v>
+        <v>738.0999996190988</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.321755720681</v>
+        <v>1163.491630733677</v>
       </c>
       <c r="N18" t="n">
-        <v>1739.380882434306</v>
+        <v>1614.550757447301</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.792066625384</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P18" t="n">
-        <v>2423.798394953439</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q18" t="n">
         <v>2574.461857357622</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.8366182758015</v>
+        <v>752.8366182758018</v>
       </c>
       <c r="C19" t="n">
-        <v>634.6917277952316</v>
+        <v>634.6917277952319</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3663808302329</v>
+        <v>535.3663808302333</v>
       </c>
       <c r="E19" t="n">
-        <v>438.2445796951768</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F19" t="n">
-        <v>342.1459246446034</v>
+        <v>342.1459246446039</v>
       </c>
       <c r="G19" t="n">
-        <v>225.1604988416068</v>
+        <v>225.1604988416069</v>
       </c>
       <c r="H19" t="n">
-        <v>129.0777296949669</v>
+        <v>129.077729694967</v>
       </c>
       <c r="I19" t="n">
         <v>80.32152299996507</v>
       </c>
       <c r="J19" t="n">
-        <v>170.1052165580255</v>
+        <v>170.1052165580256</v>
       </c>
       <c r="K19" t="n">
-        <v>415.4600593660787</v>
+        <v>415.4600593660788</v>
       </c>
       <c r="L19" t="n">
-        <v>771.034806085812</v>
+        <v>771.0348060858121</v>
       </c>
       <c r="M19" t="n">
         <v>1153.62158434337</v>
@@ -5710,13 +5710,13 @@
         <v>1469.519213395201</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.893335805577</v>
+        <v>1230.893335805578</v>
       </c>
       <c r="X19" t="n">
-        <v>1053.695077354897</v>
+        <v>1053.695077354898</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.6937906587042</v>
+        <v>883.6937906587045</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1695.912473229207</v>
       </c>
       <c r="D20" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069793</v>
       </c>
       <c r="E20" t="n">
         <v>1053.441106918887</v>
@@ -5744,10 +5744,10 @@
         <v>328.800630459512</v>
       </c>
       <c r="H20" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="I20" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J20" t="n">
         <v>422.9052394486506</v>
@@ -5756,19 +5756,19 @@
         <v>736.1902705403159</v>
       </c>
       <c r="L20" t="n">
-        <v>1161.749816024901</v>
+        <v>1423.798762590087</v>
       </c>
       <c r="M20" t="n">
-        <v>1666.936244366585</v>
+        <v>1928.985190931771</v>
       </c>
       <c r="N20" t="n">
-        <v>2184.91092565382</v>
+        <v>2446.959872219006</v>
       </c>
       <c r="O20" t="n">
-        <v>3037.67664736333</v>
+        <v>3299.725593928516</v>
       </c>
       <c r="P20" t="n">
-        <v>3461.094463224719</v>
+        <v>3671.286303978025</v>
       </c>
       <c r="Q20" t="n">
         <v>3902.140176603085</v>
@@ -5777,7 +5777,7 @@
         <v>4016.076149998253</v>
       </c>
       <c r="S20" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667629</v>
       </c>
       <c r="T20" t="n">
         <v>3796.916069191876</v>
@@ -5792,10 +5792,10 @@
         <v>3011.914750681284</v>
       </c>
       <c r="X20" t="n">
-        <v>2689.240284867542</v>
+        <v>2689.240284867541</v>
       </c>
       <c r="Y20" t="n">
-        <v>2349.892245339067</v>
+        <v>2349.892245339066</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H21" t="n">
-        <v>92.13493950465531</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I21" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J21" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K21" t="n">
-        <v>514.9856735162799</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L21" t="n">
-        <v>862.9301246061036</v>
+        <v>738.0999996190988</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.321755720681</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N21" t="n">
-        <v>1739.380882434306</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.792066625384</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P21" t="n">
-        <v>2423.798394953439</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R21" t="n">
         <v>2574.461857357622</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.8366182758016</v>
+        <v>752.8366182758015</v>
       </c>
       <c r="C22" t="n">
-        <v>634.6917277952317</v>
+        <v>634.6917277952316</v>
       </c>
       <c r="D22" t="n">
         <v>535.366380830233</v>
@@ -5896,16 +5896,16 @@
         <v>438.2445796951769</v>
       </c>
       <c r="F22" t="n">
-        <v>342.1459246446035</v>
+        <v>342.1459246446036</v>
       </c>
       <c r="G22" t="n">
-        <v>225.1604988416065</v>
+        <v>225.1604988416066</v>
       </c>
       <c r="H22" t="n">
         <v>129.0777296949666</v>
       </c>
       <c r="I22" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J22" t="n">
         <v>170.1052165580255</v>
@@ -5929,16 +5929,16 @@
         <v>2146.234934604951</v>
       </c>
       <c r="Q22" t="n">
-        <v>2267.562310778187</v>
+        <v>2267.562310778186</v>
       </c>
       <c r="R22" t="n">
         <v>2225.201159460215</v>
       </c>
       <c r="S22" t="n">
-        <v>2083.019012505046</v>
+        <v>2083.019012505045</v>
       </c>
       <c r="T22" t="n">
-        <v>1911.728013487592</v>
+        <v>1911.728013487591</v>
       </c>
       <c r="U22" t="n">
         <v>1673.412409153751</v>
@@ -5947,13 +5947,13 @@
         <v>1469.519213395201</v>
       </c>
       <c r="W22" t="n">
-        <v>1230.893335805578</v>
+        <v>1230.893335805577</v>
       </c>
       <c r="X22" t="n">
         <v>1053.695077354897</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.6937906587043</v>
+        <v>883.6937906587041</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2014.083697722282</v>
+        <v>2014.08369772228</v>
       </c>
       <c r="C23" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229206</v>
       </c>
       <c r="D23" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069792</v>
       </c>
       <c r="E23" t="n">
-        <v>1053.441106918887</v>
+        <v>1053.441106918885</v>
       </c>
       <c r="F23" t="n">
-        <v>693.246494576616</v>
+        <v>693.2464945766151</v>
       </c>
       <c r="G23" t="n">
         <v>328.800630459512</v>
       </c>
       <c r="H23" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="I23" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J23" t="n">
         <v>255.4995904282976</v>
@@ -5993,46 +5993,46 @@
         <v>568.7846215199628</v>
       </c>
       <c r="L23" t="n">
-        <v>994.3441670045479</v>
+        <v>1157.625646119035</v>
       </c>
       <c r="M23" t="n">
-        <v>1938.063170888277</v>
+        <v>1662.812074460719</v>
       </c>
       <c r="N23" t="n">
-        <v>2889.011307343377</v>
+        <v>2613.760210915818</v>
       </c>
       <c r="O23" t="n">
-        <v>3364.784849602769</v>
+        <v>3089.53375317521</v>
       </c>
       <c r="P23" t="n">
-        <v>3736.345559652278</v>
+        <v>3461.094463224719</v>
       </c>
       <c r="Q23" t="n">
-        <v>3967.199432277338</v>
+        <v>3902.140176603085</v>
       </c>
       <c r="R23" t="n">
         <v>4016.076149998253</v>
       </c>
       <c r="S23" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667629</v>
       </c>
       <c r="T23" t="n">
         <v>3796.916069191876</v>
       </c>
       <c r="U23" t="n">
-        <v>3594.163708400295</v>
+        <v>3594.163708400294</v>
       </c>
       <c r="V23" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.89211350406</v>
       </c>
       <c r="W23" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681283</v>
       </c>
       <c r="X23" t="n">
-        <v>2689.240284867542</v>
+        <v>2689.24028486754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2349.892245339067</v>
+        <v>2349.892245339065</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H24" t="n">
-        <v>92.13493950465531</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I24" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J24" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K24" t="n">
-        <v>514.9856735162799</v>
+        <v>519.0328879036292</v>
       </c>
       <c r="L24" t="n">
-        <v>862.9301246061036</v>
+        <v>866.9773389934528</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.321755720681</v>
+        <v>1292.368970108031</v>
       </c>
       <c r="N24" t="n">
-        <v>1739.380882434306</v>
+        <v>1743.428096821655</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.792066625384</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P24" t="n">
-        <v>2423.798394953439</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q24" t="n">
         <v>2574.461857357622</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>752.8366182758016</v>
+        <v>752.8366182758018</v>
       </c>
       <c r="C25" t="n">
-        <v>634.6917277952317</v>
+        <v>634.6917277952319</v>
       </c>
       <c r="D25" t="n">
-        <v>535.366380830233</v>
+        <v>535.3663808302333</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2445796951769</v>
+        <v>438.2445796951772</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1459246446038</v>
+        <v>342.1459246446039</v>
       </c>
       <c r="G25" t="n">
         <v>225.1604988416069</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0777296949669</v>
+        <v>129.077729694967</v>
       </c>
       <c r="I25" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J25" t="n">
         <v>170.1052165580255</v>
@@ -6187,10 +6187,10 @@
         <v>1230.893335805578</v>
       </c>
       <c r="X25" t="n">
-        <v>1053.695077354897</v>
+        <v>1053.695077354898</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.6937906587043</v>
+        <v>883.6937906587045</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2382.676661075308</v>
+        <v>2382.676661075306</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.714144134896</v>
+        <v>2013.714144134894</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.448445528146</v>
+        <v>1655.448445528144</v>
       </c>
       <c r="E26" t="n">
-        <v>1269.660192929901</v>
+        <v>1269.6601929299</v>
       </c>
       <c r="F26" t="n">
-        <v>858.6742881402936</v>
+        <v>858.6742881402927</v>
       </c>
       <c r="G26" t="n">
-        <v>443.4371315758526</v>
+        <v>443.4371315758517</v>
       </c>
       <c r="H26" t="n">
-        <v>144.1667316689686</v>
+        <v>144.1667316689677</v>
       </c>
       <c r="I26" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J26" t="n">
-        <v>438.4037055072851</v>
+        <v>270.998056486932</v>
       </c>
       <c r="K26" t="n">
-        <v>858.6782437566283</v>
+        <v>905.1870460240503</v>
       </c>
       <c r="L26" t="n">
-        <v>1697.722391646159</v>
+        <v>1330.746591508635</v>
       </c>
       <c r="M26" t="n">
-        <v>2647.927218145747</v>
+        <v>2240.195187694671</v>
       </c>
       <c r="N26" t="n">
-        <v>3598.875354600847</v>
+        <v>2758.169868981906</v>
       </c>
       <c r="O26" t="n">
-        <v>4074.648896860238</v>
+        <v>3610.935590691416</v>
       </c>
       <c r="P26" t="n">
-        <v>4446.209606909747</v>
+        <v>4301.077021830693</v>
       </c>
       <c r="Q26" t="n">
-        <v>4677.063479534808</v>
+        <v>4742.122735209058</v>
       </c>
       <c r="R26" t="n">
-        <v>4790.999452929976</v>
+        <v>4790.999452929974</v>
       </c>
       <c r="S26" t="n">
-        <v>4676.955537152015</v>
+        <v>4676.955537152014</v>
       </c>
       <c r="T26" t="n">
-        <v>4470.256787228925</v>
+        <v>4470.256787228924</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.713133990007</v>
+        <v>4216.713133990004</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.650246646436</v>
+        <v>3885.650246646434</v>
       </c>
       <c r="W26" t="n">
-        <v>3532.881591376321</v>
+        <v>3532.881591376319</v>
       </c>
       <c r="X26" t="n">
-        <v>3159.415833115242</v>
+        <v>3159.415833115239</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.27650113943</v>
+        <v>2769.276501139428</v>
       </c>
     </row>
     <row r="27">
@@ -6279,58 +6279,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.5970864289849</v>
+        <v>964.5970864289847</v>
       </c>
       <c r="C27" t="n">
-        <v>790.1440571478579</v>
+        <v>790.1440571478577</v>
       </c>
       <c r="D27" t="n">
-        <v>641.2096474866066</v>
+        <v>641.2096474866064</v>
       </c>
       <c r="E27" t="n">
-        <v>481.9721924811511</v>
+        <v>481.972192481151</v>
       </c>
       <c r="F27" t="n">
-        <v>335.437634508036</v>
+        <v>335.4376345080359</v>
       </c>
       <c r="G27" t="n">
         <v>198.9864086424348</v>
       </c>
       <c r="H27" t="n">
-        <v>107.6334055632898</v>
+        <v>107.6334055632897</v>
       </c>
       <c r="I27" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J27" t="n">
-        <v>306.1671239590226</v>
+        <v>181.3369989720179</v>
       </c>
       <c r="K27" t="n">
-        <v>534.5313539622639</v>
+        <v>405.6540145879096</v>
       </c>
       <c r="L27" t="n">
-        <v>882.4758050520875</v>
+        <v>753.5984656777332</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.867436166665</v>
+        <v>1178.990096792311</v>
       </c>
       <c r="N27" t="n">
-        <v>1758.92656288029</v>
+        <v>1719.36423083584</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.337747071368</v>
+        <v>2109.775415026917</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.344075399423</v>
+        <v>2403.781743354973</v>
       </c>
       <c r="Q27" t="n">
-        <v>2589.960323416257</v>
+        <v>2550.397991371807</v>
       </c>
       <c r="R27" t="n">
-        <v>2589.960323416257</v>
+        <v>2589.960323416256</v>
       </c>
       <c r="S27" t="n">
-        <v>2458.885540716936</v>
+        <v>2458.885540716935</v>
       </c>
       <c r="T27" t="n">
         <v>2265.887331988372</v>
@@ -6342,10 +6342,10 @@
         <v>1802.661579147741</v>
       </c>
       <c r="W27" t="n">
-        <v>1548.42422241954</v>
+        <v>1548.424222419539</v>
       </c>
       <c r="X27" t="n">
-        <v>1340.572722214007</v>
+        <v>1340.572722214006</v>
       </c>
       <c r="Y27" t="n">
         <v>1132.812423449053</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>660.1349074575851</v>
+        <v>355.843957095644</v>
       </c>
       <c r="C28" t="n">
-        <v>660.1349074575851</v>
+        <v>186.9077741677371</v>
       </c>
       <c r="D28" t="n">
-        <v>510.0182680452493</v>
+        <v>186.9077741677371</v>
       </c>
       <c r="E28" t="n">
-        <v>510.0182680452493</v>
+        <v>186.9077741677371</v>
       </c>
       <c r="F28" t="n">
-        <v>510.0182680452493</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="G28" t="n">
-        <v>342.2415497949153</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="H28" t="n">
-        <v>195.3674882009384</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="I28" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J28" t="n">
-        <v>135.823136889025</v>
+        <v>135.8231368890249</v>
       </c>
       <c r="K28" t="n">
         <v>331.3974339694432</v>
@@ -6406,28 +6406,28 @@
         <v>1884.816411015741</v>
       </c>
       <c r="R28" t="n">
-        <v>1884.816411015741</v>
+        <v>1791.663967250432</v>
       </c>
       <c r="S28" t="n">
-        <v>1884.816411015741</v>
+        <v>1598.690527847926</v>
       </c>
       <c r="T28" t="n">
-        <v>1662.73411955095</v>
+        <v>1598.690527847926</v>
       </c>
       <c r="U28" t="n">
-        <v>1373.627222769772</v>
+        <v>1309.583631066749</v>
       </c>
       <c r="V28" t="n">
-        <v>1118.942734563885</v>
+        <v>1054.899142860862</v>
       </c>
       <c r="W28" t="n">
-        <v>888.1244583556024</v>
+        <v>765.4819728239011</v>
       </c>
       <c r="X28" t="n">
-        <v>660.1349074575851</v>
+        <v>537.4924219258837</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.1349074575851</v>
+        <v>537.4924219258837</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2382.676661075307</v>
+        <v>2382.676661075306</v>
       </c>
       <c r="C29" t="n">
-        <v>2013.714144134895</v>
+        <v>2013.714144134894</v>
       </c>
       <c r="D29" t="n">
         <v>1655.448445528144</v>
@@ -6449,16 +6449,16 @@
         <v>1269.6601929299</v>
       </c>
       <c r="F29" t="n">
-        <v>858.6742881402927</v>
+        <v>858.6742881402924</v>
       </c>
       <c r="G29" t="n">
-        <v>443.4371315758517</v>
+        <v>443.4371315758516</v>
       </c>
       <c r="H29" t="n">
-        <v>144.1667316689678</v>
+        <v>144.1667316689676</v>
       </c>
       <c r="I29" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J29" t="n">
         <v>438.4037055072851</v>
@@ -6470,43 +6470,43 @@
         <v>1498.152240528989</v>
       </c>
       <c r="M29" t="n">
-        <v>2003.338668870672</v>
+        <v>2448.357067028576</v>
       </c>
       <c r="N29" t="n">
-        <v>2693.110613307656</v>
+        <v>3070.102792757772</v>
       </c>
       <c r="O29" t="n">
-        <v>3545.876335017166</v>
+        <v>3545.876335017164</v>
       </c>
       <c r="P29" t="n">
-        <v>4236.017766156442</v>
+        <v>4236.01776615644</v>
       </c>
       <c r="Q29" t="n">
-        <v>4677.063479534808</v>
+        <v>4677.063479534806</v>
       </c>
       <c r="R29" t="n">
-        <v>4790.999452929976</v>
+        <v>4790.999452929974</v>
       </c>
       <c r="S29" t="n">
-        <v>4676.955537152015</v>
+        <v>4676.955537152013</v>
       </c>
       <c r="T29" t="n">
-        <v>4470.256787228925</v>
+        <v>4470.256787228923</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.713133990005</v>
+        <v>4216.713133990004</v>
       </c>
       <c r="V29" t="n">
         <v>3885.650246646434</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.88159137632</v>
+        <v>3532.881591376319</v>
       </c>
       <c r="X29" t="n">
-        <v>3159.41583311524</v>
+        <v>3159.415833115239</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.276501139429</v>
+        <v>2769.276501139428</v>
       </c>
     </row>
     <row r="30">
@@ -6516,58 +6516,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.5970864289849</v>
+        <v>964.5970864289847</v>
       </c>
       <c r="C30" t="n">
-        <v>790.1440571478579</v>
+        <v>790.1440571478577</v>
       </c>
       <c r="D30" t="n">
-        <v>641.2096474866066</v>
+        <v>641.2096474866064</v>
       </c>
       <c r="E30" t="n">
-        <v>481.9721924811511</v>
+        <v>481.972192481151</v>
       </c>
       <c r="F30" t="n">
-        <v>335.437634508036</v>
+        <v>335.4376345080359</v>
       </c>
       <c r="G30" t="n">
         <v>198.9864086424348</v>
       </c>
       <c r="H30" t="n">
-        <v>107.6334055632898</v>
+        <v>107.6334055632897</v>
       </c>
       <c r="I30" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J30" t="n">
-        <v>306.1671239590226</v>
+        <v>181.3369989720179</v>
       </c>
       <c r="K30" t="n">
-        <v>530.4841395749144</v>
+        <v>405.6540145879096</v>
       </c>
       <c r="L30" t="n">
-        <v>878.4285906647381</v>
+        <v>753.5984656777332</v>
       </c>
       <c r="M30" t="n">
-        <v>1303.820221779316</v>
+        <v>1268.305104122215</v>
       </c>
       <c r="N30" t="n">
-        <v>1754.87934849294</v>
+        <v>1719.36423083584</v>
       </c>
       <c r="O30" t="n">
-        <v>2145.290532684018</v>
+        <v>2109.775415026917</v>
       </c>
       <c r="P30" t="n">
-        <v>2439.296861012074</v>
+        <v>2403.781743354973</v>
       </c>
       <c r="Q30" t="n">
-        <v>2589.960323416257</v>
+        <v>2550.397991371807</v>
       </c>
       <c r="R30" t="n">
-        <v>2589.960323416257</v>
+        <v>2589.960323416256</v>
       </c>
       <c r="S30" t="n">
-        <v>2458.885540716936</v>
+        <v>2458.885540716935</v>
       </c>
       <c r="T30" t="n">
         <v>2265.887331988372</v>
@@ -6579,10 +6579,10 @@
         <v>1802.661579147741</v>
       </c>
       <c r="W30" t="n">
-        <v>1548.42422241954</v>
+        <v>1548.424222419539</v>
       </c>
       <c r="X30" t="n">
-        <v>1340.572722214007</v>
+        <v>1340.572722214006</v>
       </c>
       <c r="Y30" t="n">
         <v>1132.812423449053</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.81998905859952</v>
+        <v>730.5626232315692</v>
       </c>
       <c r="C31" t="n">
-        <v>95.81998905859952</v>
+        <v>561.6264403036623</v>
       </c>
       <c r="D31" t="n">
-        <v>95.81998905859952</v>
+        <v>411.5098008913266</v>
       </c>
       <c r="E31" t="n">
-        <v>95.81998905859952</v>
+        <v>263.5967073089335</v>
       </c>
       <c r="F31" t="n">
-        <v>95.81998905859952</v>
+        <v>263.5967073089335</v>
       </c>
       <c r="G31" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="H31" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="I31" t="n">
-        <v>95.81998905859952</v>
+        <v>95.81998905859948</v>
       </c>
       <c r="J31" t="n">
-        <v>135.823136889025</v>
+        <v>135.8231368890249</v>
       </c>
       <c r="K31" t="n">
         <v>331.3974339694432</v>
@@ -6643,28 +6643,28 @@
         <v>1884.816411015741</v>
       </c>
       <c r="R31" t="n">
-        <v>1884.816411015741</v>
+        <v>1791.663967250432</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.541430419203</v>
+        <v>1598.690527847926</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.459138954412</v>
+        <v>1376.608236383135</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.352242173234</v>
+        <v>1376.608236383135</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.667753967347</v>
+        <v>1179.344753273117</v>
       </c>
       <c r="W31" t="n">
-        <v>726.2505839303867</v>
+        <v>1179.344753273117</v>
       </c>
       <c r="X31" t="n">
-        <v>498.2610330323694</v>
+        <v>951.3552023750993</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.4684538888392</v>
+        <v>730.5626232315692</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2359.216133007174</v>
       </c>
       <c r="C32" t="n">
-        <v>1993.464693930837</v>
+        <v>1993.464693930836</v>
       </c>
       <c r="D32" t="n">
         <v>1638.41007318816</v>
@@ -6686,64 +6686,64 @@
         <v>1255.83289845399</v>
       </c>
       <c r="F32" t="n">
-        <v>848.0580715284559</v>
+        <v>848.0580715284564</v>
       </c>
       <c r="G32" t="n">
-        <v>436.0319928280889</v>
+        <v>436.0319928280896</v>
       </c>
       <c r="H32" t="n">
-        <v>139.9726707852793</v>
+        <v>139.9726707852791</v>
       </c>
       <c r="I32" t="n">
-        <v>94.83700603898502</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0150734673175</v>
+        <v>437.4207224876706</v>
       </c>
       <c r="K32" t="n">
-        <v>583.3001045589828</v>
+        <v>750.7057535793358</v>
       </c>
       <c r="L32" t="n">
-        <v>1422.344252448514</v>
+        <v>1589.749901468867</v>
       </c>
       <c r="M32" t="n">
-        <v>2372.549078948102</v>
+        <v>2094.93632981055</v>
       </c>
       <c r="N32" t="n">
-        <v>3323.497215403201</v>
+        <v>3020.953641777047</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.559001553766</v>
+        <v>3496.727184036439</v>
       </c>
       <c r="P32" t="n">
-        <v>4462.119711603274</v>
+        <v>4186.868615175716</v>
       </c>
       <c r="Q32" t="n">
-        <v>4692.973584228335</v>
+        <v>4627.914328554081</v>
       </c>
       <c r="R32" t="n">
-        <v>4741.850301949251</v>
+        <v>4741.850301949249</v>
       </c>
       <c r="S32" t="n">
         <v>4631.017464035363</v>
       </c>
       <c r="T32" t="n">
-        <v>4427.529791976347</v>
+        <v>4427.529791976346</v>
       </c>
       <c r="U32" t="n">
-        <v>4177.197216601503</v>
+        <v>4177.197216601502</v>
       </c>
       <c r="V32" t="n">
-        <v>3849.345407122006</v>
+        <v>3849.345407122005</v>
       </c>
       <c r="W32" t="n">
-        <v>3499.787829715966</v>
+        <v>3499.787829715965</v>
       </c>
       <c r="X32" t="n">
-        <v>3129.53314931896</v>
+        <v>3129.533149318959</v>
       </c>
       <c r="Y32" t="n">
-        <v>2742.604895207222</v>
+        <v>2742.604895207221</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>963.6141034093704</v>
+        <v>963.6141034093702</v>
       </c>
       <c r="C33" t="n">
-        <v>789.1610741282434</v>
+        <v>789.1610741282432</v>
       </c>
       <c r="D33" t="n">
-        <v>640.2266644669921</v>
+        <v>640.2266644669919</v>
       </c>
       <c r="E33" t="n">
-        <v>480.9892094615366</v>
+        <v>480.9892094615365</v>
       </c>
       <c r="F33" t="n">
-        <v>334.4546514884215</v>
+        <v>334.4546514884214</v>
       </c>
       <c r="G33" t="n">
         <v>198.0034256228203</v>
       </c>
       <c r="H33" t="n">
-        <v>106.6504225436753</v>
+        <v>106.6504225436752</v>
       </c>
       <c r="I33" t="n">
-        <v>94.83700603898502</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="J33" t="n">
-        <v>305.1841409394081</v>
+        <v>180.3540159524034</v>
       </c>
       <c r="K33" t="n">
-        <v>529.5011565552999</v>
+        <v>404.6710315682951</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4456076451236</v>
+        <v>752.6154826581187</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.837238759701</v>
+        <v>1178.007113772697</v>
       </c>
       <c r="N33" t="n">
-        <v>1753.896365473326</v>
+        <v>1629.066240486321</v>
       </c>
       <c r="O33" t="n">
-        <v>2144.307549664404</v>
+        <v>2019.477424677399</v>
       </c>
       <c r="P33" t="n">
-        <v>2438.313877992459</v>
+        <v>2313.483753005454</v>
       </c>
       <c r="Q33" t="n">
-        <v>2588.977340396642</v>
+        <v>2549.415008352192</v>
       </c>
       <c r="R33" t="n">
         <v>2588.977340396642</v>
@@ -6813,7 +6813,7 @@
         <v>2036.830704359869</v>
       </c>
       <c r="V33" t="n">
-        <v>1801.678596128127</v>
+        <v>1801.678596128126</v>
       </c>
       <c r="W33" t="n">
         <v>1547.441239399925</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1100.413603397663</v>
+        <v>238.5158756728213</v>
       </c>
       <c r="C34" t="n">
-        <v>934.6884983338305</v>
+        <v>238.5158756728213</v>
       </c>
       <c r="D34" t="n">
-        <v>787.7829367855687</v>
+        <v>238.5158756728213</v>
       </c>
       <c r="E34" t="n">
-        <v>643.0809210672495</v>
+        <v>238.5158756728213</v>
       </c>
       <c r="F34" t="n">
-        <v>499.4020514334131</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="G34" t="n">
-        <v>334.836411047153</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="H34" t="n">
-        <v>191.17342731725</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="I34" t="n">
-        <v>94.83700603898502</v>
+        <v>94.83700603898498</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9873312839893</v>
+        <v>137.9873312839894</v>
       </c>
       <c r="K34" t="n">
-        <v>336.7088057789864</v>
+        <v>336.7088057789866</v>
       </c>
       <c r="L34" t="n">
-        <v>645.6501841856635</v>
+        <v>645.6501841856639</v>
       </c>
       <c r="M34" t="n">
-        <v>981.603594130165</v>
+        <v>981.6035941301656</v>
       </c>
       <c r="N34" t="n">
-        <v>1315.078232145463</v>
+        <v>1315.078232145464</v>
       </c>
       <c r="O34" t="n">
         <v>1607.319988959111</v>
       </c>
       <c r="P34" t="n">
-        <v>1834.316839452578</v>
+        <v>1834.316839452579</v>
       </c>
       <c r="Q34" t="n">
-        <v>1909.010847312757</v>
+        <v>1909.010847312758</v>
       </c>
       <c r="R34" t="n">
-        <v>1819.069481411522</v>
+        <v>1819.069481411524</v>
       </c>
       <c r="S34" t="n">
-        <v>1629.30711987309</v>
+        <v>1629.307119873092</v>
       </c>
       <c r="T34" t="n">
-        <v>1629.30711987309</v>
+        <v>1410.435906272374</v>
       </c>
       <c r="U34" t="n">
-        <v>1629.30711987309</v>
+        <v>1172.214266433142</v>
       </c>
       <c r="V34" t="n">
-        <v>1629.30711987309</v>
+        <v>920.7408560913294</v>
       </c>
       <c r="W34" t="n">
-        <v>1629.30711987309</v>
+        <v>634.5347639184429</v>
       </c>
       <c r="X34" t="n">
-        <v>1496.432491643285</v>
+        <v>634.5347639184429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1278.850990363829</v>
+        <v>416.9532626389869</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2014.083697722283</v>
+        <v>2014.083697722282</v>
       </c>
       <c r="C35" t="n">
-        <v>1695.912473229208</v>
+        <v>1695.912473229207</v>
       </c>
       <c r="D35" t="n">
         <v>1388.438067069794</v>
@@ -6923,49 +6923,49 @@
         <v>1053.441106918887</v>
       </c>
       <c r="F35" t="n">
-        <v>693.2464945766164</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G35" t="n">
         <v>328.800630459512</v>
       </c>
       <c r="H35" t="n">
-        <v>80.32152299996508</v>
+        <v>80.3215229999651</v>
       </c>
       <c r="I35" t="n">
-        <v>80.32152299996508</v>
+        <v>80.3215229999651</v>
       </c>
       <c r="J35" t="n">
-        <v>422.9052394486506</v>
+        <v>255.4995904282976</v>
       </c>
       <c r="K35" t="n">
-        <v>846.4588347125477</v>
+        <v>568.7846215199629</v>
       </c>
       <c r="L35" t="n">
-        <v>1272.018380197133</v>
+        <v>994.3441670045481</v>
       </c>
       <c r="M35" t="n">
-        <v>1777.204808538816</v>
+        <v>1499.530595346232</v>
       </c>
       <c r="N35" t="n">
-        <v>2295.179489826051</v>
+        <v>2017.505276633467</v>
       </c>
       <c r="O35" t="n">
-        <v>2770.953032085444</v>
+        <v>2870.270998342977</v>
       </c>
       <c r="P35" t="n">
-        <v>3461.09446322472</v>
+        <v>3560.412429482253</v>
       </c>
       <c r="Q35" t="n">
-        <v>3902.140176603086</v>
+        <v>3902.140176603087</v>
       </c>
       <c r="R35" t="n">
-        <v>4016.076149998254</v>
+        <v>4016.076149998255</v>
       </c>
       <c r="S35" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667631</v>
       </c>
       <c r="T35" t="n">
-        <v>3796.916069191877</v>
+        <v>3796.916069191878</v>
       </c>
       <c r="U35" t="n">
         <v>3594.163708400295</v>
@@ -7008,25 +7008,25 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H36" t="n">
-        <v>92.13493950465531</v>
+        <v>92.13493950465534</v>
       </c>
       <c r="I36" t="n">
-        <v>80.32152299996508</v>
+        <v>80.3215229999651</v>
       </c>
       <c r="J36" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133835</v>
       </c>
       <c r="K36" t="n">
-        <v>514.98567351628</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L36" t="n">
-        <v>862.9301246061036</v>
+        <v>866.9773389934528</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.321755720681</v>
+        <v>1292.368970108031</v>
       </c>
       <c r="N36" t="n">
-        <v>1739.380882434306</v>
+        <v>1743.428096821655</v>
       </c>
       <c r="O36" t="n">
         <v>2133.839281012733</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>752.8366182758017</v>
+        <v>752.8366182758019</v>
       </c>
       <c r="C37" t="n">
-        <v>634.6917277952318</v>
+        <v>634.6917277952319</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3663808302332</v>
+        <v>535.3663808302331</v>
       </c>
       <c r="E37" t="n">
-        <v>438.2445796951771</v>
+        <v>438.244579695177</v>
       </c>
       <c r="F37" t="n">
-        <v>342.1459246446038</v>
+        <v>342.1459246446037</v>
       </c>
       <c r="G37" t="n">
-        <v>225.1604988416068</v>
+        <v>225.1604988416067</v>
       </c>
       <c r="H37" t="n">
-        <v>129.0777296949669</v>
+        <v>129.0777296949668</v>
       </c>
       <c r="I37" t="n">
-        <v>80.32152299996508</v>
+        <v>80.3215229999651</v>
       </c>
       <c r="J37" t="n">
-        <v>170.1052165580254</v>
+        <v>170.1052165580255</v>
       </c>
       <c r="K37" t="n">
         <v>415.4600593660787</v>
       </c>
       <c r="L37" t="n">
-        <v>771.0348060858119</v>
+        <v>771.0348060858121</v>
       </c>
       <c r="M37" t="n">
         <v>1153.62158434337</v>
@@ -7111,7 +7111,7 @@
         <v>1872.604715798428</v>
       </c>
       <c r="P37" t="n">
-        <v>2146.234934604952</v>
+        <v>2146.234934604951</v>
       </c>
       <c r="Q37" t="n">
         <v>2267.562310778187</v>
@@ -7123,7 +7123,7 @@
         <v>2083.019012505046</v>
       </c>
       <c r="T37" t="n">
-        <v>1911.728013487591</v>
+        <v>1911.728013487592</v>
       </c>
       <c r="U37" t="n">
         <v>1673.412409153751</v>
@@ -7135,10 +7135,10 @@
         <v>1230.893335805578</v>
       </c>
       <c r="X37" t="n">
-        <v>1053.695077354897</v>
+        <v>1053.695077354898</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.6937906587043</v>
+        <v>883.6937906587045</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2014.083697722282</v>
       </c>
       <c r="C38" t="n">
-        <v>1695.912473229208</v>
+        <v>1695.912473229207</v>
       </c>
       <c r="D38" t="n">
         <v>1388.438067069794</v>
@@ -7160,7 +7160,7 @@
         <v>1053.441106918887</v>
       </c>
       <c r="F38" t="n">
-        <v>693.2464945766166</v>
+        <v>693.246494576616</v>
       </c>
       <c r="G38" t="n">
         <v>328.800630459512</v>
@@ -7172,37 +7172,37 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J38" t="n">
-        <v>422.9052394486506</v>
+        <v>255.4995904282976</v>
       </c>
       <c r="K38" t="n">
-        <v>736.1902705403159</v>
+        <v>568.7846215199628</v>
       </c>
       <c r="L38" t="n">
-        <v>1161.749816024901</v>
+        <v>1407.828769409494</v>
       </c>
       <c r="M38" t="n">
-        <v>1666.936244366585</v>
+        <v>2358.033595909082</v>
       </c>
       <c r="N38" t="n">
-        <v>2184.91092565382</v>
+        <v>2876.008277196317</v>
       </c>
       <c r="O38" t="n">
-        <v>2770.953032085443</v>
+        <v>3364.78484960277</v>
       </c>
       <c r="P38" t="n">
-        <v>3461.094463224719</v>
+        <v>3736.345559652278</v>
       </c>
       <c r="Q38" t="n">
-        <v>3902.140176603085</v>
+        <v>3967.199432277338</v>
       </c>
       <c r="R38" t="n">
-        <v>4016.076149998253</v>
+        <v>4016.076149998254</v>
       </c>
       <c r="S38" t="n">
         <v>3952.82352666763</v>
       </c>
       <c r="T38" t="n">
-        <v>3796.916069191876</v>
+        <v>3796.916069191877</v>
       </c>
       <c r="U38" t="n">
         <v>3594.163708400295</v>
@@ -7251,25 +7251,25 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J39" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K39" t="n">
-        <v>514.9856735162799</v>
+        <v>390.1555485292752</v>
       </c>
       <c r="L39" t="n">
-        <v>862.9301246061036</v>
+        <v>738.0999996190988</v>
       </c>
       <c r="M39" t="n">
-        <v>1288.321755720681</v>
+        <v>1163.491630733677</v>
       </c>
       <c r="N39" t="n">
-        <v>1739.380882434306</v>
+        <v>1614.550757447301</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.792066625384</v>
+        <v>2004.961941638379</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.798394953439</v>
+        <v>2427.845609340789</v>
       </c>
       <c r="Q39" t="n">
         <v>2574.461857357622</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>752.8366182758017</v>
+        <v>752.8366182758016</v>
       </c>
       <c r="C40" t="n">
-        <v>634.6917277952318</v>
+        <v>634.6917277952317</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3663808302332</v>
+        <v>535.366380830233</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2445796951772</v>
+        <v>438.2445796951769</v>
       </c>
       <c r="F40" t="n">
-        <v>342.1459246446038</v>
+        <v>342.1459246446036</v>
       </c>
       <c r="G40" t="n">
-        <v>225.1604988416068</v>
+        <v>225.1604988416066</v>
       </c>
       <c r="H40" t="n">
         <v>129.0777296949669</v>
@@ -7330,7 +7330,7 @@
         <v>80.32152299996507</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1052165580256</v>
+        <v>170.1052165580255</v>
       </c>
       <c r="K40" t="n">
         <v>415.4600593660787</v>
@@ -7348,7 +7348,7 @@
         <v>1872.604715798428</v>
       </c>
       <c r="P40" t="n">
-        <v>2146.234934604952</v>
+        <v>2146.234934604951</v>
       </c>
       <c r="Q40" t="n">
         <v>2267.562310778187</v>
@@ -7357,10 +7357,10 @@
         <v>2225.201159460215</v>
       </c>
       <c r="S40" t="n">
-        <v>2083.019012505045</v>
+        <v>2083.019012505046</v>
       </c>
       <c r="T40" t="n">
-        <v>1911.728013487591</v>
+        <v>1911.728013487592</v>
       </c>
       <c r="U40" t="n">
         <v>1673.412409153751</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2014.083697722282</v>
+        <v>2014.083697722281</v>
       </c>
       <c r="C41" t="n">
-        <v>1695.912473229207</v>
+        <v>1695.912473229206</v>
       </c>
       <c r="D41" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069793</v>
       </c>
       <c r="E41" t="n">
         <v>1053.441106918886</v>
       </c>
       <c r="F41" t="n">
-        <v>693.2464945766159</v>
+        <v>693.2464945766155</v>
       </c>
       <c r="G41" t="n">
         <v>328.800630459512</v>
       </c>
       <c r="H41" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="I41" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J41" t="n">
         <v>255.4995904282976</v>
@@ -7421,16 +7421,16 @@
         <v>1944.548993504136</v>
       </c>
       <c r="N41" t="n">
-        <v>2889.011307343377</v>
+        <v>2505.371330579355</v>
       </c>
       <c r="O41" t="n">
-        <v>3364.784849602769</v>
+        <v>2981.144872838748</v>
       </c>
       <c r="P41" t="n">
-        <v>3736.345559652278</v>
+        <v>3671.286303978025</v>
       </c>
       <c r="Q41" t="n">
-        <v>3967.199432277338</v>
+        <v>3902.140176603085</v>
       </c>
       <c r="R41" t="n">
         <v>4016.076149998253</v>
@@ -7442,13 +7442,13 @@
         <v>3796.916069191876</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.163708400295</v>
+        <v>3594.163708400294</v>
       </c>
       <c r="V41" t="n">
-        <v>3313.892113504061</v>
+        <v>3313.89211350406</v>
       </c>
       <c r="W41" t="n">
-        <v>3011.914750681284</v>
+        <v>3011.914750681283</v>
       </c>
       <c r="X41" t="n">
         <v>2689.240284867541</v>
@@ -7482,10 +7482,10 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H42" t="n">
-        <v>92.13493950465531</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I42" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J42" t="n">
         <v>165.8385329133834</v>
@@ -7503,7 +7503,7 @@
         <v>1614.550757447301</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.961941638379</v>
+        <v>2133.839281012733</v>
       </c>
       <c r="P42" t="n">
         <v>2427.845609340789</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.8366182758025</v>
+        <v>752.8366182758016</v>
       </c>
       <c r="C43" t="n">
-        <v>634.6917277952326</v>
+        <v>634.6917277952317</v>
       </c>
       <c r="D43" t="n">
-        <v>535.366380830234</v>
+        <v>535.366380830233</v>
       </c>
       <c r="E43" t="n">
-        <v>438.2445796951779</v>
+        <v>438.2445796951769</v>
       </c>
       <c r="F43" t="n">
-        <v>342.1459246446046</v>
+        <v>342.1459246446036</v>
       </c>
       <c r="G43" t="n">
-        <v>225.1604988416077</v>
+        <v>225.1604988416066</v>
       </c>
       <c r="H43" t="n">
-        <v>129.0777296949678</v>
+        <v>129.0777296949667</v>
       </c>
       <c r="I43" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J43" t="n">
-        <v>170.1052165580256</v>
+        <v>170.1052165580255</v>
       </c>
       <c r="K43" t="n">
-        <v>415.4600593660789</v>
+        <v>415.4600593660788</v>
       </c>
       <c r="L43" t="n">
-        <v>771.0348060858122</v>
+        <v>771.0348060858121</v>
       </c>
       <c r="M43" t="n">
         <v>1153.62158434337</v>
       </c>
       <c r="N43" t="n">
-        <v>1533.729590671725</v>
+        <v>1533.729590671724</v>
       </c>
       <c r="O43" t="n">
         <v>1872.604715798428</v>
       </c>
       <c r="P43" t="n">
-        <v>2146.234934604952</v>
+        <v>2146.234934604951</v>
       </c>
       <c r="Q43" t="n">
         <v>2267.562310778187</v>
@@ -7600,19 +7600,19 @@
         <v>1911.728013487592</v>
       </c>
       <c r="U43" t="n">
-        <v>1673.412409153752</v>
+        <v>1673.412409153751</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.519213395202</v>
+        <v>1469.519213395201</v>
       </c>
       <c r="W43" t="n">
         <v>1230.893335805578</v>
       </c>
       <c r="X43" t="n">
-        <v>1053.695077354898</v>
+        <v>1053.695077354897</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.6937906587051</v>
+        <v>883.6937906587043</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>2014.083697722282</v>
       </c>
       <c r="C44" t="n">
-        <v>1695.912473229208</v>
+        <v>1695.912473229207</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.438067069794</v>
+        <v>1388.438067069793</v>
       </c>
       <c r="E44" t="n">
-        <v>1053.441106918887</v>
+        <v>1053.441106918886</v>
       </c>
       <c r="F44" t="n">
-        <v>693.2464945766169</v>
+        <v>693.2464945766155</v>
       </c>
       <c r="G44" t="n">
-        <v>328.8006304595119</v>
+        <v>328.8006304595116</v>
       </c>
       <c r="H44" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="I44" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J44" t="n">
-        <v>422.9052394486506</v>
+        <v>255.4995904282976</v>
       </c>
       <c r="K44" t="n">
-        <v>846.4588347125468</v>
+        <v>688.7364759722404</v>
       </c>
       <c r="L44" t="n">
-        <v>1272.018380197132</v>
+        <v>1114.296021456826</v>
       </c>
       <c r="M44" t="n">
-        <v>1777.204808538816</v>
+        <v>1619.482449798509</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.17948982605</v>
+        <v>2570.430586253608</v>
       </c>
       <c r="O44" t="n">
-        <v>2770.953032085443</v>
+        <v>3046.204128513001</v>
       </c>
       <c r="P44" t="n">
-        <v>3461.094463224719</v>
+        <v>3736.345559652277</v>
       </c>
       <c r="Q44" t="n">
-        <v>3902.140176603085</v>
+        <v>3967.199432277338</v>
       </c>
       <c r="R44" t="n">
         <v>4016.076149998253</v>
       </c>
       <c r="S44" t="n">
-        <v>3952.82352666763</v>
+        <v>3952.823526667629</v>
       </c>
       <c r="T44" t="n">
-        <v>3796.916069191877</v>
+        <v>3796.916069191876</v>
       </c>
       <c r="U44" t="n">
         <v>3594.163708400295</v>
@@ -7688,10 +7688,10 @@
         <v>3011.914750681284</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.240284867542</v>
+        <v>2689.240284867541</v>
       </c>
       <c r="Y44" t="n">
-        <v>2349.892245339067</v>
+        <v>2349.892245339066</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>183.4879425838004</v>
       </c>
       <c r="H45" t="n">
-        <v>92.13493950465531</v>
+        <v>92.13493950465528</v>
       </c>
       <c r="I45" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J45" t="n">
-        <v>290.6686579003882</v>
+        <v>165.8385329133834</v>
       </c>
       <c r="K45" t="n">
-        <v>514.9856735162799</v>
+        <v>479.4705558591795</v>
       </c>
       <c r="L45" t="n">
-        <v>862.9301246061036</v>
+        <v>827.4150069490031</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.321755720681</v>
+        <v>1252.806638063581</v>
       </c>
       <c r="N45" t="n">
-        <v>1739.380882434306</v>
+        <v>1703.865764777205</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.792066625384</v>
+        <v>2094.276948968283</v>
       </c>
       <c r="P45" t="n">
-        <v>2423.798394953439</v>
+        <v>2388.283277296339</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.461857357622</v>
+        <v>2534.899525313172</v>
       </c>
       <c r="R45" t="n">
         <v>2574.461857357622</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.8366182758011</v>
+        <v>752.8366182758017</v>
       </c>
       <c r="C46" t="n">
-        <v>634.6917277952314</v>
+        <v>634.6917277952318</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3663808302327</v>
+        <v>535.3663808302332</v>
       </c>
       <c r="E46" t="n">
-        <v>438.2445796951768</v>
+        <v>438.2445796951771</v>
       </c>
       <c r="F46" t="n">
-        <v>342.1459246446035</v>
+        <v>342.1459246446038</v>
       </c>
       <c r="G46" t="n">
-        <v>225.1604988416066</v>
+        <v>225.1604988416068</v>
       </c>
       <c r="H46" t="n">
-        <v>129.0777296949668</v>
+        <v>129.0777296949669</v>
       </c>
       <c r="I46" t="n">
-        <v>80.32152299996507</v>
+        <v>80.32152299996505</v>
       </c>
       <c r="J46" t="n">
-        <v>170.1052165580256</v>
+        <v>170.1052165580255</v>
       </c>
       <c r="K46" t="n">
-        <v>415.460059366079</v>
+        <v>415.4600593660791</v>
       </c>
       <c r="L46" t="n">
-        <v>771.0348060858124</v>
+        <v>771.0348060858123</v>
       </c>
       <c r="M46" t="n">
         <v>1153.62158434337</v>
@@ -7819,16 +7819,16 @@
         <v>1533.729590671725</v>
       </c>
       <c r="O46" t="n">
-        <v>1872.604715798429</v>
+        <v>1872.604715798428</v>
       </c>
       <c r="P46" t="n">
         <v>2146.234934604952</v>
       </c>
       <c r="Q46" t="n">
-        <v>2267.562310778188</v>
+        <v>2267.562310778186</v>
       </c>
       <c r="R46" t="n">
-        <v>2225.201159460214</v>
+        <v>2225.201159460215</v>
       </c>
       <c r="S46" t="n">
         <v>2083.019012505045</v>
@@ -7837,10 +7837,10 @@
         <v>1911.728013487591</v>
       </c>
       <c r="U46" t="n">
-        <v>1673.41240915375</v>
+        <v>1673.412409153751</v>
       </c>
       <c r="V46" t="n">
-        <v>1469.5192133952</v>
+        <v>1469.519213395201</v>
       </c>
       <c r="W46" t="n">
         <v>1230.893335805577</v>
@@ -7849,7 +7849,7 @@
         <v>1053.695077354897</v>
       </c>
       <c r="Y46" t="n">
-        <v>883.6937906587037</v>
+        <v>883.6937906587043</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
         <v>244.7826565119678</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M4" t="n">
         <v>154.2285214627401</v>
@@ -8149,7 +8149,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M5" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.2845116011566</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N8" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O8" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,16 +8538,16 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>167.5717993463377</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>330.4123254943833</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.30098296676822</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>90.21717912111558</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>430.7955884363699</v>
       </c>
       <c r="O14" t="n">
-        <v>111.3823880527588</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>130.1791306811656</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>5.559718251270823</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>130.1791306811658</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>5.559718251270823</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>264.6959056214003</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>52.38091496149576</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>90.21717912111552</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>164.9307869843305</v>
       </c>
       <c r="M23" t="n">
-        <v>442.9621975172182</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>130.1791306811657</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>5.559718251270823</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>108.0702092501797</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>408.345624085204</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>4.088095340757093</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>90.21717912111524</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>173.5325890401499</v>
+        <v>104.8192368100609</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>90.21717912111529</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>412.1642734133954</v>
       </c>
       <c r="O32" t="n">
-        <v>294.2305493850229</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.088095340756695</v>
+        <v>90.21717912111569</v>
       </c>
       <c r="R33" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>111.3823880527595</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>111.993812621993</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>130.1791306811656</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>4.088095340756809</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>111.3823880527588</v>
+        <v>13.13437388592001</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>130.1791306811658</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>5.559718251270823</v>
@@ -11069,19 +11069,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>430.7955884363699</v>
+        <v>43.28046039190394</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>130.1791306811658</v>
       </c>
       <c r="P42" t="n">
-        <v>130.1791306811658</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>111.3823880527586</v>
+        <v>121.163489345735</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.21717912111541</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.08809534075715</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.559718251270823</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>55.24414076488503</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0989510678307</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.4053209780371</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.5520241509155</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.22091932765581</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.043705008481</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.8614685501433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>58.01290489039096</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0989510678307</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.4053209780371</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.22091932765581</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>88.80147421790846</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2158278133657</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>56.84679504490987</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.0678540131945</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.436505932779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.2549955611358</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.9199839823974</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.2263538926038</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>95.37305706548217</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>216.6825014647101</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>283.0368607279325</v>
+        <v>47.1974372870927</v>
       </c>
       <c r="V34" t="n">
-        <v>248.9586762383948</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.3440312511578</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>90.98480635609724</v>
+        <v>222.5306883036038</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638674.8579298051</v>
+        <v>638674.8579298048</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638674.8579298051</v>
+        <v>638674.8579298049</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>638974.0545710475</v>
+        <v>638974.0545710477</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="F2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642847</v>
+      </c>
+      <c r="H2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="E2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="F2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642843</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642848</v>
-      </c>
       <c r="I2" t="n">
-        <v>821041.769864285</v>
+        <v>821041.7698642845</v>
       </c>
       <c r="J2" t="n">
-        <v>792270.6659955956</v>
+        <v>792270.6659955953</v>
       </c>
       <c r="K2" t="n">
-        <v>792270.6659955956</v>
+        <v>792270.6659955952</v>
       </c>
       <c r="L2" t="n">
-        <v>794089.6048393663</v>
+        <v>794089.6048393656</v>
       </c>
       <c r="M2" t="n">
+        <v>821041.769864284</v>
+      </c>
+      <c r="N2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="O2" t="n">
         <v>821041.7698642845</v>
       </c>
-      <c r="N2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642841</v>
-      </c>
       <c r="P2" t="n">
-        <v>821041.7698642848</v>
+        <v>821041.7698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54692.3776224769</v>
+        <v>54692.3776224768</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2543.173668346605</v>
+        <v>2543.173668346667</v>
       </c>
       <c r="M3" t="n">
         <v>235797.0900753147</v>
@@ -26424,7 +26424,7 @@
         <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>79083.79279145987</v>
+        <v>79083.79279145981</v>
       </c>
       <c r="F4" t="n">
         <v>79083.7927914598</v>
@@ -26439,13 +26439,13 @@
         <v>79083.7927914598</v>
       </c>
       <c r="J4" t="n">
-        <v>45263.40956890838</v>
+        <v>45263.40956890841</v>
       </c>
       <c r="K4" t="n">
-        <v>45263.40956890842</v>
+        <v>45263.40956890841</v>
       </c>
       <c r="L4" t="n">
-        <v>47405.08453969618</v>
+        <v>47405.08453969631</v>
       </c>
       <c r="M4" t="n">
         <v>79083.79279145983</v>
@@ -26454,10 +26454,10 @@
         <v>79083.79279145983</v>
       </c>
       <c r="O4" t="n">
-        <v>79083.79279145983</v>
+        <v>79083.79279145978</v>
       </c>
       <c r="P4" t="n">
-        <v>79083.79279145988</v>
+        <v>79083.7927914598</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>88144.53292105587</v>
       </c>
       <c r="H5" t="n">
-        <v>88144.53292105587</v>
+        <v>88144.53292105586</v>
       </c>
       <c r="I5" t="n">
-        <v>88144.53292105587</v>
+        <v>88144.53292105586</v>
       </c>
       <c r="J5" t="n">
-        <v>95696.09369251042</v>
+        <v>95696.09369251039</v>
       </c>
       <c r="K5" t="n">
-        <v>95696.09369251042</v>
+        <v>95696.09369251039</v>
       </c>
       <c r="L5" t="n">
-        <v>95216.2791815087</v>
+        <v>95216.27918150867</v>
       </c>
       <c r="M5" t="n">
-        <v>88144.53292105587</v>
+        <v>88144.53292105588</v>
       </c>
       <c r="N5" t="n">
         <v>88144.53292105587</v>
       </c>
       <c r="O5" t="n">
-        <v>88144.53292105587</v>
+        <v>88144.53292105586</v>
       </c>
       <c r="P5" t="n">
-        <v>88144.53292105587</v>
+        <v>88144.53292105586</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378828.9168062979</v>
+        <v>378828.9168062981</v>
       </c>
       <c r="C6" t="n">
-        <v>383957.2161105828</v>
+        <v>383957.2161105826</v>
       </c>
       <c r="D6" t="n">
-        <v>381390.0993734634</v>
+        <v>381390.0993734633</v>
       </c>
       <c r="E6" t="n">
-        <v>-520896.5128220209</v>
+        <v>-520896.5128220203</v>
       </c>
       <c r="F6" t="n">
-        <v>653813.4441517681</v>
+        <v>653813.4441517687</v>
       </c>
       <c r="G6" t="n">
-        <v>653813.4441517686</v>
+        <v>653813.4441517689</v>
       </c>
       <c r="H6" t="n">
-        <v>653813.444151769</v>
+        <v>653813.4441517675</v>
       </c>
       <c r="I6" t="n">
-        <v>653813.4441517693</v>
+        <v>653813.4441517689</v>
       </c>
       <c r="J6" t="n">
-        <v>596618.7851117</v>
+        <v>596546.857352028</v>
       </c>
       <c r="K6" t="n">
-        <v>651311.1627341768</v>
+        <v>651239.2349745047</v>
       </c>
       <c r="L6" t="n">
-        <v>648925.0674498148</v>
+        <v>648857.6870372515</v>
       </c>
       <c r="M6" t="n">
-        <v>418016.3540764542</v>
+        <v>418016.3540764535</v>
       </c>
       <c r="N6" t="n">
-        <v>653813.4441517685</v>
+        <v>653813.4441517678</v>
       </c>
       <c r="O6" t="n">
-        <v>653813.4441517683</v>
+        <v>653813.4441517689</v>
       </c>
       <c r="P6" t="n">
-        <v>653813.444151769</v>
+        <v>653813.4441517675</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F2" t="n">
         <v>50.28337952286365</v>
       </c>
       <c r="G2" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H2" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I2" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="M2" t="n">
         <v>50.28337952286366</v>
       </c>
       <c r="N2" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="O2" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="P2" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="3">
@@ -26811,13 +26811,13 @@
         <v>1004.019037499563</v>
       </c>
       <c r="J4" t="n">
-        <v>1197.749863232494</v>
+        <v>1197.749863232493</v>
       </c>
       <c r="K4" t="n">
-        <v>1197.749863232494</v>
+        <v>1197.749863232493</v>
       </c>
       <c r="L4" t="n">
-        <v>1185.462575487313</v>
+        <v>1185.462575487312</v>
       </c>
       <c r="M4" t="n">
         <v>1004.019037499564</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.28337952286372</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.178967085433256</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="M2" t="n">
-        <v>47.10441243743048</v>
+        <v>47.10441243743033</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>209.0335632480657</v>
+        <v>209.0335632480653</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>794.985474251498</v>
+        <v>794.9854742514985</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.28337952286372</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.388093752925303</v>
       </c>
       <c r="R2" t="n">
-        <v>134.6010260184174</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7130056875657</v>
+        <v>133.9664143613078</v>
       </c>
       <c r="E3" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,22 +27585,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>212.2310041857062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.3803041055479</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,22 +27658,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>321.1496530085154</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>236.3922456457846</v>
+        <v>238.2163319575887</v>
       </c>
       <c r="X6" t="n">
-        <v>193.0409253264044</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.3533289786064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,13 +27822,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1060021487638</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.9612939798818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>397.87748900756</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,7 +27904,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S9" t="n">
-        <v>144.0931458435217</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,10 +27989,10 @@
         <v>198.3513568206587</v>
       </c>
       <c r="V9" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>228.140280237891</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>122.9722886624218</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,10 +28062,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>266.591710731088</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I11" t="n">
         <v>47.8632751842645</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="J13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="K13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286401</v>
       </c>
       <c r="L13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="M13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="N13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="O13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="P13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="R13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="S13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.2833795228637</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I17" t="n">
         <v>47.8632751842645</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="J19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="K19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="L19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="M19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="N19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="O19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="P19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="R19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="S19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I20" t="n">
         <v>47.8632751842645</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="J22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="K22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="L22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="M22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="N22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="O22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="P22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="R22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="S22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F23" t="n">
-        <v>50.28337952286358</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I23" t="n">
         <v>47.8632751842645</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="J25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="K25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="L25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="M25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="N25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="O25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="P25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="R25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="S25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.28337952286365</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.997529158509207e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-7.299328654735236e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="C32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="D32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="E32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="F32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="G32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="H32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="I32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="T32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="U32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="V32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="W32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="X32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="C34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="D34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="E34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="F34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="G34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="H34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="I34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="J34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="K34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="L34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="M34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="N34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="O34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="P34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="R34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="T34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="U34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="V34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="W34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="X34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.178967085433183</v>
+        <v>3.178967085433333</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I38" t="n">
         <v>47.8632751842645</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="J40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="K40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="L40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="M40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="N40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="O40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="P40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="R40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="S40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I41" t="n">
         <v>47.8632751842645</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="C43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="D43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="E43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="F43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="G43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="H43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="I43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="J43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="K43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="L43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="M43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="N43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="O43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="P43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="R43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="S43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="U43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="V43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="W43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="X43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.28337952286368</v>
+        <v>50.28337952286365</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I44" t="n">
         <v>47.8632751842645</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="C46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="D46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="E46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="F46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="G46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="H46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="I46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="J46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="K46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="L46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="M46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="N46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="O46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="P46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="R46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="S46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="U46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="V46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="W46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="X46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.28337952286375</v>
+        <v>50.28337952286366</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O2" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M4" t="n">
         <v>15.30273751513505</v>
@@ -34869,7 +34869,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="Q6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N8" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O8" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>27.59002526031614</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.9475428569015</v>
+        <v>346.0441580289753</v>
       </c>
       <c r="K11" t="n">
         <v>316.4495263552174</v>
       </c>
       <c r="L11" t="n">
-        <v>847.5193413025567</v>
+        <v>760.2704522464895</v>
       </c>
       <c r="M11" t="n">
         <v>510.2893215572561</v>
       </c>
       <c r="N11" t="n">
-        <v>960.553673186969</v>
+        <v>523.2067487749848</v>
       </c>
       <c r="O11" t="n">
-        <v>480.5793356155476</v>
+        <v>861.379516878293</v>
       </c>
       <c r="P11" t="n">
         <v>375.3138485348573</v>
@@ -35431,7 +35431,7 @@
         <v>233.1857299243035</v>
       </c>
       <c r="R11" t="n">
-        <v>74.67140490708663</v>
+        <v>49.37042194031841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K12" t="n">
         <v>226.5828440564563</v>
@@ -35501,16 +35501,16 @@
         <v>455.6152795087116</v>
       </c>
       <c r="O12" t="n">
-        <v>394.3547315061392</v>
+        <v>484.5719106272547</v>
       </c>
       <c r="P12" t="n">
         <v>296.9760892202581</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.69059955359648</v>
+        <v>90.69059955359644</v>
       </c>
       <c r="K13" t="n">
-        <v>247.8331745535892</v>
+        <v>247.8331745535895</v>
       </c>
       <c r="L13" t="n">
         <v>359.1664108280135</v>
       </c>
       <c r="M13" t="n">
-        <v>386.4512911692503</v>
+        <v>386.4512911692502</v>
       </c>
       <c r="N13" t="n">
         <v>383.947481139752</v>
       </c>
       <c r="O13" t="n">
-        <v>342.2981061885895</v>
+        <v>342.2981061885894</v>
       </c>
       <c r="P13" t="n">
-        <v>276.3941604106302</v>
+        <v>276.3941604106301</v>
       </c>
       <c r="Q13" t="n">
         <v>122.5529052254901</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>346.0441580289753</v>
+        <v>176.9475428569015</v>
       </c>
       <c r="K14" t="n">
         <v>316.4495263552174</v>
@@ -35653,22 +35653,22 @@
         <v>429.8581267521062</v>
       </c>
       <c r="M14" t="n">
-        <v>510.2893215572561</v>
+        <v>959.8028550500886</v>
       </c>
       <c r="N14" t="n">
-        <v>523.2067487749848</v>
+        <v>954.0023372113548</v>
       </c>
       <c r="O14" t="n">
-        <v>591.9617236683064</v>
+        <v>480.5793356155476</v>
       </c>
       <c r="P14" t="n">
-        <v>697.11255670634</v>
+        <v>375.3138485348573</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.5007205842082</v>
+        <v>233.1857299243035</v>
       </c>
       <c r="R14" t="n">
-        <v>115.0868418133009</v>
+        <v>49.37042194031841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K15" t="n">
         <v>226.5828440564563</v>
@@ -35735,7 +35735,7 @@
         <v>429.6885162773514</v>
       </c>
       <c r="N15" t="n">
-        <v>455.6152795087116</v>
+        <v>585.7944101898772</v>
       </c>
       <c r="O15" t="n">
         <v>394.3547315061392</v>
@@ -35744,7 +35744,7 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.69059955359643</v>
+        <v>90.69059955359644</v>
       </c>
       <c r="K16" t="n">
         <v>247.8331745535891</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K18" t="n">
         <v>226.5828440564563</v>
@@ -35975,13 +35975,13 @@
         <v>455.6152795087116</v>
       </c>
       <c r="O18" t="n">
-        <v>394.3547315061392</v>
+        <v>524.533862187305</v>
       </c>
       <c r="P18" t="n">
         <v>296.9760892202581</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.69059955359643</v>
+        <v>90.69059955359646</v>
       </c>
       <c r="K19" t="n">
         <v>247.8331745535891</v>
@@ -36054,7 +36054,7 @@
         <v>383.947481139752</v>
       </c>
       <c r="O19" t="n">
-        <v>342.2981061885894</v>
+        <v>342.2981061885895</v>
       </c>
       <c r="P19" t="n">
         <v>276.3941604106301</v>
@@ -36124,7 +36124,7 @@
         <v>316.4495263552174</v>
       </c>
       <c r="L20" t="n">
-        <v>429.8581267521062</v>
+        <v>694.5540323735065</v>
       </c>
       <c r="M20" t="n">
         <v>510.2893215572561</v>
@@ -36136,10 +36136,10 @@
         <v>861.379516878293</v>
       </c>
       <c r="P20" t="n">
-        <v>427.6947634963531</v>
+        <v>375.3138485348573</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.5007205842082</v>
+        <v>233.1857299243035</v>
       </c>
       <c r="R20" t="n">
         <v>115.0868418133009</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K21" t="n">
         <v>226.5828440564563</v>
@@ -36206,7 +36206,7 @@
         <v>351.4590415048723</v>
       </c>
       <c r="M21" t="n">
-        <v>429.6885162773514</v>
+        <v>519.9056953984669</v>
       </c>
       <c r="N21" t="n">
         <v>455.6152795087116</v>
@@ -36218,10 +36218,10 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.69059955359643</v>
+        <v>90.69059955359646</v>
       </c>
       <c r="K22" t="n">
         <v>247.8331745535891</v>
       </c>
       <c r="L22" t="n">
-        <v>359.1664108280135</v>
+        <v>359.1664108280134</v>
       </c>
       <c r="M22" t="n">
         <v>386.4512911692502</v>
@@ -36291,7 +36291,7 @@
         <v>383.947481139752</v>
       </c>
       <c r="O22" t="n">
-        <v>342.2981061885894</v>
+        <v>342.2981061885895</v>
       </c>
       <c r="P22" t="n">
         <v>276.3941604106301</v>
@@ -36361,10 +36361,10 @@
         <v>316.4495263552174</v>
       </c>
       <c r="L23" t="n">
-        <v>429.8581267521062</v>
+        <v>594.7889137364367</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2515190744743</v>
+        <v>510.2893215572561</v>
       </c>
       <c r="N23" t="n">
         <v>960.553673186969</v>
@@ -36376,10 +36376,10 @@
         <v>375.3138485348573</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.1857299243035</v>
+        <v>445.5007205842082</v>
       </c>
       <c r="R23" t="n">
-        <v>49.37042194031841</v>
+        <v>115.0868418133009</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K24" t="n">
-        <v>226.5828440564563</v>
+        <v>356.761974737622</v>
       </c>
       <c r="L24" t="n">
         <v>351.4590415048723</v>
@@ -36455,7 +36455,7 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.69059955359643</v>
+        <v>90.69059955359646</v>
       </c>
       <c r="K25" t="n">
         <v>247.8331745535891</v>
@@ -36528,7 +36528,7 @@
         <v>383.947481139752</v>
       </c>
       <c r="O25" t="n">
-        <v>342.2981061885894</v>
+        <v>342.2981061885895</v>
       </c>
       <c r="P25" t="n">
         <v>276.3941604106301</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.0441580289753</v>
+        <v>176.9475428569015</v>
       </c>
       <c r="K26" t="n">
-        <v>424.5197356053972</v>
+        <v>640.5949389263822</v>
       </c>
       <c r="L26" t="n">
-        <v>847.5193413025567</v>
+        <v>429.8581267521062</v>
       </c>
       <c r="M26" t="n">
-        <v>959.8028550500886</v>
+        <v>918.6349456424601</v>
       </c>
       <c r="N26" t="n">
-        <v>960.553673186969</v>
+        <v>523.2067487749848</v>
       </c>
       <c r="O26" t="n">
-        <v>480.5793356155476</v>
+        <v>861.379516878293</v>
       </c>
       <c r="P26" t="n">
-        <v>375.3138485348573</v>
+        <v>697.11255670634</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.1857299243035</v>
+        <v>445.5007205842082</v>
       </c>
       <c r="R26" t="n">
-        <v>115.0868418133009</v>
+        <v>49.37042194031841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K27" t="n">
-        <v>230.6709393972134</v>
+        <v>226.5828440564563</v>
       </c>
       <c r="L27" t="n">
         <v>351.4590415048723</v>
@@ -36683,7 +36683,7 @@
         <v>429.6885162773514</v>
       </c>
       <c r="N27" t="n">
-        <v>455.6152795087116</v>
+        <v>545.8324586298269</v>
       </c>
       <c r="O27" t="n">
         <v>394.3547315061392</v>
@@ -36695,7 +36695,7 @@
         <v>148.0972202190237</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>429.8581267521062</v>
       </c>
       <c r="M29" t="n">
-        <v>510.2893215572561</v>
+        <v>959.8028550500886</v>
       </c>
       <c r="N29" t="n">
-        <v>696.7393378151347</v>
+        <v>628.0259855850458</v>
       </c>
       <c r="O29" t="n">
-        <v>861.379516878293</v>
+        <v>480.5793356155476</v>
       </c>
       <c r="P29" t="n">
         <v>697.11255670634</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K30" t="n">
         <v>226.5828440564563</v>
@@ -36917,7 +36917,7 @@
         <v>351.4590415048723</v>
       </c>
       <c r="M30" t="n">
-        <v>429.6885162773514</v>
+        <v>519.9056953984667</v>
       </c>
       <c r="N30" t="n">
         <v>455.6152795087116</v>
@@ -36929,10 +36929,10 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.9475428569015</v>
+        <v>346.0441580289753</v>
       </c>
       <c r="K32" t="n">
         <v>316.4495263552174</v>
@@ -37075,22 +37075,22 @@
         <v>847.5193413025567</v>
       </c>
       <c r="M32" t="n">
-        <v>959.8028550500886</v>
+        <v>510.2893215572561</v>
       </c>
       <c r="N32" t="n">
-        <v>960.553673186969</v>
+        <v>935.3710221883803</v>
       </c>
       <c r="O32" t="n">
-        <v>774.8098850005705</v>
+        <v>480.5793356155476</v>
       </c>
       <c r="P32" t="n">
-        <v>375.3138485348573</v>
+        <v>697.11255670634</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.1857299243035</v>
+        <v>445.5007205842082</v>
       </c>
       <c r="R32" t="n">
-        <v>49.37042194031841</v>
+        <v>115.0868418133009</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K33" t="n">
         <v>226.5828440564563</v>
@@ -37166,10 +37166,10 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.1853155597804</v>
+        <v>238.3143993401394</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.58618711616597</v>
+        <v>43.58618711616612</v>
       </c>
       <c r="K34" t="n">
-        <v>200.7287621161587</v>
+        <v>200.7287621161588</v>
       </c>
       <c r="L34" t="n">
-        <v>312.061998390583</v>
+        <v>312.0619983905831</v>
       </c>
       <c r="M34" t="n">
-        <v>339.3468787318197</v>
+        <v>339.3468787318199</v>
       </c>
       <c r="N34" t="n">
-        <v>336.8430687023215</v>
+        <v>336.8430687023217</v>
       </c>
       <c r="O34" t="n">
-        <v>295.1936937511589</v>
+        <v>295.1936937511591</v>
       </c>
       <c r="P34" t="n">
-        <v>229.2897479731997</v>
+        <v>229.2897479731998</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.4484927880596</v>
+        <v>75.44849278805974</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>346.0441580289753</v>
+        <v>176.9475428569015</v>
       </c>
       <c r="K35" t="n">
-        <v>427.8319144079769</v>
+        <v>316.4495263552174</v>
       </c>
       <c r="L35" t="n">
         <v>429.8581267521062</v>
@@ -37318,13 +37318,13 @@
         <v>523.2067487749848</v>
       </c>
       <c r="O35" t="n">
-        <v>480.5793356155476</v>
+        <v>861.379516878293</v>
       </c>
       <c r="P35" t="n">
         <v>697.11255670634</v>
       </c>
       <c r="Q35" t="n">
-        <v>445.5007205842082</v>
+        <v>345.1795425462965</v>
       </c>
       <c r="R35" t="n">
         <v>115.0868418133009</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K36" t="n">
         <v>226.5828440564563</v>
       </c>
       <c r="L36" t="n">
-        <v>351.4590415048723</v>
+        <v>481.638172186038</v>
       </c>
       <c r="M36" t="n">
         <v>429.6885162773514</v>
@@ -37397,7 +37397,7 @@
         <v>455.6152795087116</v>
       </c>
       <c r="O36" t="n">
-        <v>398.442826846896</v>
+        <v>394.3547315061392</v>
       </c>
       <c r="P36" t="n">
         <v>296.9760892202581</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>346.0441580289753</v>
+        <v>176.9475428569015</v>
       </c>
       <c r="K38" t="n">
         <v>316.4495263552174</v>
       </c>
       <c r="L38" t="n">
-        <v>429.8581267521062</v>
+        <v>847.5193413025567</v>
       </c>
       <c r="M38" t="n">
-        <v>510.2893215572561</v>
+        <v>959.8028550500886</v>
       </c>
       <c r="N38" t="n">
         <v>523.2067487749848</v>
       </c>
       <c r="O38" t="n">
-        <v>591.9617236683064</v>
+        <v>493.7137095014676</v>
       </c>
       <c r="P38" t="n">
-        <v>697.11255670634</v>
+        <v>375.3138485348573</v>
       </c>
       <c r="Q38" t="n">
-        <v>445.5007205842082</v>
+        <v>233.1857299243035</v>
       </c>
       <c r="R38" t="n">
-        <v>115.0868418133009</v>
+        <v>49.37042194031841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K39" t="n">
         <v>226.5828440564563</v>
@@ -37637,10 +37637,10 @@
         <v>394.3547315061392</v>
       </c>
       <c r="P39" t="n">
-        <v>296.9760892202581</v>
+        <v>427.1552199014239</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.69059955359647</v>
+        <v>90.69059955359644</v>
       </c>
       <c r="K40" t="n">
-        <v>247.8331745535892</v>
+        <v>247.8331745535891</v>
       </c>
       <c r="L40" t="n">
         <v>359.1664108280135</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4512911692503</v>
+        <v>386.4512911692502</v>
       </c>
       <c r="N40" t="n">
         <v>383.947481139752</v>
       </c>
       <c r="O40" t="n">
-        <v>342.2981061885895</v>
+        <v>342.2981061885894</v>
       </c>
       <c r="P40" t="n">
         <v>276.3941604106301</v>
@@ -37789,19 +37789,19 @@
         <v>959.8028550500886</v>
       </c>
       <c r="N41" t="n">
-        <v>954.0023372113548</v>
+        <v>566.4872091668888</v>
       </c>
       <c r="O41" t="n">
         <v>480.5793356155476</v>
       </c>
       <c r="P41" t="n">
-        <v>375.3138485348573</v>
+        <v>697.11255670634</v>
       </c>
       <c r="Q41" t="n">
         <v>233.1857299243035</v>
       </c>
       <c r="R41" t="n">
-        <v>49.37042194031841</v>
+        <v>115.0868418133009</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>455.6152795087116</v>
       </c>
       <c r="O42" t="n">
-        <v>394.3547315061392</v>
+        <v>524.533862187305</v>
       </c>
       <c r="P42" t="n">
-        <v>427.1552199014239</v>
+        <v>296.9760892202581</v>
       </c>
       <c r="Q42" t="n">
         <v>148.0972202190237</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.69059955359647</v>
+        <v>90.69059955359644</v>
       </c>
       <c r="K43" t="n">
-        <v>247.8331745535892</v>
+        <v>247.8331745535891</v>
       </c>
       <c r="L43" t="n">
         <v>359.1664108280135</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4512911692503</v>
+        <v>386.4512911692502</v>
       </c>
       <c r="N43" t="n">
         <v>383.947481139752</v>
       </c>
       <c r="O43" t="n">
-        <v>342.2981061885895</v>
+        <v>342.2981061885894</v>
       </c>
       <c r="P43" t="n">
         <v>276.3941604106301</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>346.0441580289753</v>
+        <v>176.9475428569015</v>
       </c>
       <c r="K44" t="n">
-        <v>427.831914407976</v>
+        <v>437.6130157009524</v>
       </c>
       <c r="L44" t="n">
         <v>429.8581267521062</v>
@@ -38026,7 +38026,7 @@
         <v>510.2893215572561</v>
       </c>
       <c r="N44" t="n">
-        <v>523.2067487749848</v>
+        <v>960.553673186969</v>
       </c>
       <c r="O44" t="n">
         <v>480.5793356155476</v>
@@ -38035,10 +38035,10 @@
         <v>697.11255670634</v>
       </c>
       <c r="Q44" t="n">
-        <v>445.5007205842082</v>
+        <v>233.1857299243035</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0868418133009</v>
+        <v>49.37042194031841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>212.4718534347708</v>
+        <v>86.38081809436198</v>
       </c>
       <c r="K45" t="n">
-        <v>226.5828440564563</v>
+        <v>316.8000231775717</v>
       </c>
       <c r="L45" t="n">
         <v>351.4590415048723</v>
@@ -38114,10 +38114,10 @@
         <v>296.9760892202581</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.1853155597809</v>
+        <v>148.0972202190237</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.96195156005</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.69059955359654</v>
+        <v>90.69059955359646</v>
       </c>
       <c r="K46" t="n">
-        <v>247.8331745535892</v>
+        <v>247.8331745535891</v>
       </c>
       <c r="L46" t="n">
-        <v>359.1664108280136</v>
+        <v>359.1664108280134</v>
       </c>
       <c r="M46" t="n">
-        <v>386.4512911692503</v>
+        <v>386.4512911692502</v>
       </c>
       <c r="N46" t="n">
-        <v>383.9474811397521</v>
+        <v>383.9474811397519</v>
       </c>
       <c r="O46" t="n">
-        <v>342.2981061885895</v>
+        <v>342.2981061885894</v>
       </c>
       <c r="P46" t="n">
-        <v>276.3941604106302</v>
+        <v>276.3941604106301</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.5529052254902</v>
+        <v>122.5529052254901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
